--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8DBE5D-ED47-4208-AABC-2C6C5543D603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17859ACA-0498-49C8-9D40-CFB684BACB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="11115" windowHeight="20985" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -44,12 +44,6 @@
     <t>COEFFICIENT</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
@@ -140,7 +134,46 @@
     <t>REGRESSORS</t>
   </si>
   <si>
-    <t>CAT</t>
+    <t>Dgn_Low</t>
+  </si>
+  <si>
+    <t>Dag_Low</t>
+  </si>
+  <si>
+    <t>Dag_sq_Low</t>
+  </si>
+  <si>
+    <t>HUA_Low</t>
+  </si>
+  <si>
+    <t>HUB_Low</t>
+  </si>
+  <si>
+    <t>Year_transformed_Low</t>
+  </si>
+  <si>
+    <t>Constant_Low</t>
+  </si>
+  <si>
+    <t>Dgn_Medium</t>
+  </si>
+  <si>
+    <t>Dag_Medium</t>
+  </si>
+  <si>
+    <t>Dag_sq_Medium</t>
+  </si>
+  <si>
+    <t>HUA_Medium</t>
+  </si>
+  <si>
+    <t>HUB_Medium</t>
+  </si>
+  <si>
+    <t>Year_transformed_Medium</t>
+  </si>
+  <si>
+    <t>Constant_Medium</t>
   </si>
 </sst>
 </file>
@@ -544,66 +577,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -627,36 +660,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5">
         <v>-8.3379256292782949E-2</v>
@@ -685,7 +718,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>-0.44382673821451712</v>
@@ -714,7 +747,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5">
         <v>7.2106130008844291E-3</v>
@@ -743,7 +776,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5">
         <v>-0.14725229771664056</v>
@@ -772,7 +805,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5">
         <v>-0.25614167040955504</v>
@@ -801,7 +834,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
         <v>-3.6298093281369015E-2</v>
@@ -830,7 +863,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5">
         <v>7.7741883368231361</v>
@@ -884,45 +917,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5">
         <v>-1.1268101667649291E-2</v>
@@ -966,7 +999,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>-0.63039659758565159</v>
@@ -1010,7 +1043,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5">
         <v>9.1327993641878713E-3</v>
@@ -1054,7 +1087,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5">
         <v>0.20548480534059291</v>
@@ -1098,7 +1131,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>-0.78735759097626878</v>
@@ -1142,7 +1175,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5">
         <v>0.72368505280927786</v>
@@ -1186,7 +1219,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>-9.8977204724184822E-2</v>
@@ -1230,7 +1263,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>-0.40535348629865831</v>
@@ -1274,7 +1307,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5">
         <v>7.5541391245292244E-2</v>
@@ -1318,7 +1351,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>-7.9563105100996137E-2</v>
@@ -1362,7 +1395,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>4.6914795306990699E-3</v>
@@ -1406,7 +1439,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="5">
         <v>7.9111055450213721</v>
@@ -1455,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4166C8A3-8125-479C-A99A-1257D5F59E53}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1464,845 +1497,753 @@
     <col min="1" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.41379566713805094</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.8006708482058549E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-1.0413845165261629E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.7761471073766179E-4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-2.6026573684412492E-4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-1.2017738306277469E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.7834668652452445E-4</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8.5711575329947665E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5.4643406357876264E-4</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.9305934574519595E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-3.9215826092171553E-5</v>
+      </c>
+      <c r="M2" s="4">
+        <v>-2.602657368440803E-4</v>
+      </c>
+      <c r="N2" s="4">
+        <v>-1.2017738306277972E-3</v>
+      </c>
+      <c r="O2" s="4">
+        <v>-5.8053821501349986E-6</v>
+      </c>
+      <c r="P2" s="4">
+        <v>-2.3068567761102582E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.5342748337312027</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-1.0413845165261629E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.44461993036470349</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-1.0648507729289675E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-1.6876698489636213E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.6554129175876867E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.1801245536059559E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-4.6134665027390236</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9.9585808110615875E-4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>-1.5547597491159387E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>3.0601582871698542E-4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>-1.6876698489273244E-3</v>
+      </c>
+      <c r="N3" s="4">
+        <v>5.6554129175789957E-3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>9.9158329431915139E-5</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.19039686679488499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.41379566713805094</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.8006708482058549E-2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>-1.0413845165261629E-2</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="B4" s="5">
+        <v>-3.5462932151367588E-2</v>
+      </c>
+      <c r="C4" s="4">
         <v>2.7761471073766179E-4</v>
       </c>
-      <c r="G3" s="4">
+      <c r="D4" s="4">
+        <v>-1.0648507729289675E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.5624364995984031E-4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.5708259359456035E-5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-1.2925818533043081E-4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-3.342489340852493E-6</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.1099138401010646</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-2.6320624719421192E-5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.8713232302430619E-4</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-7.643592462939163E-6</v>
+      </c>
+      <c r="M4" s="4">
+        <v>3.5708259358577926E-5</v>
+      </c>
+      <c r="N4" s="4">
+        <v>-1.292581853302221E-4</v>
+      </c>
+      <c r="O4" s="4">
+        <v>-2.2230649277966551E-6</v>
+      </c>
+      <c r="P4" s="4">
+        <v>-4.7312092617540491E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3.963015435313573E-2</v>
+      </c>
+      <c r="C5" s="4">
         <v>-2.6026573684412492E-4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="D5" s="4">
+        <v>-1.6876698489636213E-3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.5708259359456035E-5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.6695229473375381E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.8051536760197905E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1.3805572918502144E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3.1667958915616943E-3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>4.0361149902828821E-4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.7228022868254521E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-4.6969842548320233E-5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2.6695229473375229E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1.8051536760197929E-2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>3.6997136432840932E-4</v>
+      </c>
+      <c r="P5" s="4">
+        <v>-6.1308688662759236E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.2816127840512892</v>
+      </c>
+      <c r="C6" s="4">
         <v>-1.2017738306277469E-3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="D6" s="4">
+        <v>5.6554129175876867E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-1.2925818533043081E-4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.8051536760197905E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.2470661711412248E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-1.3296445028694755E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-7.7059339860899495E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4.1308486621342085E-4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>-8.0466931606505872E-4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.6110918848061635E-5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.8051536760197988E-2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2.2470661711412227E-2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2.7717215468628929E-4</v>
+      </c>
+      <c r="P6" s="4">
+        <v>-1.7778852112508667E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3.7910917136234706E-3</v>
+      </c>
+      <c r="C7" s="4">
         <v>1.7834668652452445E-4</v>
       </c>
-      <c r="J3" s="4">
+      <c r="D7" s="4">
+        <v>3.1801245536059559E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-3.342489340852493E-6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-1.3805572918502144E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-1.3296445028694755E-4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6.0044282389084039E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1.3794018318166575E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4.222582879213118E-6</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8.5420470336085731E-5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-1.8808789396120872E-6</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-1.380557291850026E-4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>-1.3296445028696763E-4</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2.3038586009592921E-5</v>
+      </c>
+      <c r="P7" s="4">
+        <v>-1.1738908394724051E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-36.440248401675419</v>
+      </c>
+      <c r="C8" s="4">
         <v>8.5711575329947665E-2</v>
       </c>
-      <c r="K3" s="4">
+      <c r="D8" s="4">
+        <v>-4.6134665027390236</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1099138401010646</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.1667958915616943E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-7.7059339860899495E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1.3794018318166575E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>48.290712115621027</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-1.0116274927731983E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.1512957316426764</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-2.972868257114937E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3.1667958914687253E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>-7.7059339860927334E-2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>-1.6822763833527488E-3</v>
+      </c>
+      <c r="P8" s="4">
+        <v>-1.83006133806348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-0.72516532133752731</v>
+      </c>
+      <c r="C9" s="4">
         <v>5.4643406357876264E-4</v>
       </c>
-      <c r="L3" s="4">
+      <c r="D9" s="4">
+        <v>9.9585808110615875E-4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-2.6320624719421192E-5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.0361149902828821E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.1308486621342085E-4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4.222582879213118E-6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-1.0116274927731983E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.0866752686068551E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>6.1764252112221363E-3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-1.3628547951569179E-4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>4.0361149902829667E-4</v>
+      </c>
+      <c r="N9" s="4">
+        <v>4.1308486621334322E-4</v>
+      </c>
+      <c r="O9" s="4">
+        <v>6.4916357692590757E-5</v>
+      </c>
+      <c r="P9" s="4">
+        <v>-8.0116635570056771E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6.905081187492188</v>
+      </c>
+      <c r="C10" s="4">
         <v>1.9305934574519595E-3</v>
       </c>
-      <c r="M3" s="4">
+      <c r="D10" s="4">
+        <v>-1.5547597491159387E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.8713232302430619E-4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.7228022868254521E-3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-8.0466931606505872E-4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8.5420470336085731E-5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.1512957316426764</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6.1764252112221363E-3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.98565093511474089</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-2.0477000205447154E-2</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2.7228022868038548E-3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>-8.0466931609579628E-4</v>
+      </c>
+      <c r="O10" s="4">
+        <v>-1.375334198365108E-3</v>
+      </c>
+      <c r="P10" s="4">
+        <v>-11.789704530453577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-0.12868226744750794</v>
+      </c>
+      <c r="C11" s="4">
         <v>-3.9215826092171553E-5</v>
       </c>
-      <c r="N3" s="4">
+      <c r="D11" s="4">
+        <v>3.0601582871698542E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-7.643592462939163E-6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-4.6969842548320233E-5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.6110918848061635E-5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-1.8808789396120872E-6</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-2.972868257114937E-3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-1.3628547951569179E-4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-2.0477000205447154E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4.2629215885812023E-4</v>
+      </c>
+      <c r="M11" s="4">
+        <v>-4.6969842548117216E-5</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2.61109188486831E-5</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2.2307345343262723E-5</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.2445039237348734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.9630154353135744E-2</v>
+      </c>
+      <c r="C12" s="4">
         <v>-2.602657368440803E-4</v>
       </c>
-      <c r="O3" s="4">
+      <c r="D12" s="4">
+        <v>-1.6876698489273244E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.5708259358577926E-5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.6695229473375229E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.8051536760197988E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-1.380557291850026E-4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3.1667958914687253E-3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4.0361149902829667E-4</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2.7228022868038548E-3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-4.6969842548117216E-5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2.6695229473375232E-2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.8051536760197936E-2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>3.6997136432840937E-4</v>
+      </c>
+      <c r="P12" s="4">
+        <v>-6.1308688662759264E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.28161278405128931</v>
+      </c>
+      <c r="C13" s="4">
         <v>-1.2017738306277972E-3</v>
       </c>
-      <c r="P3" s="4">
+      <c r="D13" s="4">
+        <v>5.6554129175789957E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-1.292581853302221E-4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1.8051536760197929E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.2470661711412227E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1.3296445028696763E-4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-7.7059339860927334E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4.1308486621334322E-4</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-8.0466931609579628E-4</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2.61109188486831E-5</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.8051536760197936E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2.2470661711412238E-2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2.7717215468628939E-4</v>
+      </c>
+      <c r="P13" s="4">
+        <v>-1.7778852112508695E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-9.1094011810293862E-2</v>
+      </c>
+      <c r="C14" s="4">
         <v>-5.8053821501349986E-6</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="D14" s="4">
+        <v>9.9158329431915139E-5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-2.2230649277966551E-6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.6997136432840932E-4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.7717215468628929E-4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.3038586009592921E-5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-1.6822763833527488E-3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>6.4916357692590757E-5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>-1.375334198365108E-3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2.2307345343262723E-5</v>
+      </c>
+      <c r="M14" s="4">
+        <v>3.6997136432840937E-4</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2.7717215468628939E-4</v>
+      </c>
+      <c r="O14" s="4">
+        <v>9.5494681945059552E-4</v>
+      </c>
+      <c r="P14" s="4">
+        <v>6.3497897579125051E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-90.721983727043423</v>
+      </c>
+      <c r="C15" s="4">
         <v>-2.3068567761102582E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.5342748337312027</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-1.0413845165261629E-2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.44461993036470349</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-1.0648507729289675E-2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-1.6876698489636213E-3</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5.6554129175876867E-3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3.1801245536059559E-4</v>
-      </c>
-      <c r="J4" s="4">
-        <v>-4.6134665027390236</v>
-      </c>
-      <c r="K4" s="4">
-        <v>9.9585808110615875E-4</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-1.5547597491159387E-2</v>
-      </c>
-      <c r="M4" s="4">
-        <v>3.0601582871698542E-4</v>
-      </c>
-      <c r="N4" s="4">
-        <v>-1.6876698489273244E-3</v>
-      </c>
-      <c r="O4" s="4">
-        <v>5.6554129175789957E-3</v>
-      </c>
-      <c r="P4" s="4">
-        <v>9.9158329431915139E-5</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="D15" s="4">
         <v>0.19039686679488499</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-3.5462932151367588E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.7761471073766179E-4</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-1.0648507729289675E-2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.5624364995984031E-4</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3.5708259359456035E-5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-1.2925818533043081E-4</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-3.342489340852493E-6</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.1099138401010646</v>
-      </c>
-      <c r="K5" s="4">
-        <v>-2.6320624719421192E-5</v>
-      </c>
-      <c r="L5" s="4">
-        <v>3.8713232302430619E-4</v>
-      </c>
-      <c r="M5" s="4">
-        <v>-7.643592462939163E-6</v>
-      </c>
-      <c r="N5" s="4">
-        <v>3.5708259358577926E-5</v>
-      </c>
-      <c r="O5" s="4">
-        <v>-1.292581853302221E-4</v>
-      </c>
-      <c r="P5" s="4">
-        <v>-2.2230649277966551E-6</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="E15" s="4">
         <v>-4.7312092617540491E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3.963015435313573E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-2.6026573684412492E-4</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-1.6876698489636213E-3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3.5708259359456035E-5</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.6695229473375381E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.8051536760197905E-2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>-1.3805572918502144E-4</v>
-      </c>
-      <c r="J6" s="4">
-        <v>3.1667958915616943E-3</v>
-      </c>
-      <c r="K6" s="4">
-        <v>4.0361149902828821E-4</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2.7228022868254521E-3</v>
-      </c>
-      <c r="M6" s="4">
-        <v>-4.6969842548320233E-5</v>
-      </c>
-      <c r="N6" s="4">
-        <v>2.6695229473375229E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1.8051536760197929E-2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>3.6997136432840932E-4</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="F15" s="4">
         <v>-6.1308688662759236E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.2816127840512892</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-1.2017738306277469E-3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5.6554129175876867E-3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-1.2925818533043081E-4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.8051536760197905E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2.2470661711412248E-2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-1.3296445028694755E-4</v>
-      </c>
-      <c r="J7" s="4">
-        <v>-7.7059339860899495E-2</v>
-      </c>
-      <c r="K7" s="4">
-        <v>4.1308486621342085E-4</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-8.0466931606505872E-4</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2.6110918848061635E-5</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1.8051536760197988E-2</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2.2470661711412227E-2</v>
-      </c>
-      <c r="P7" s="4">
-        <v>2.7717215468628929E-4</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="G15" s="4">
         <v>-1.7778852112508667E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-3.7910917136234706E-3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.7834668652452445E-4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3.1801245536059559E-4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>-3.342489340852493E-6</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-1.3805572918502144E-4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-1.3296445028694755E-4</v>
-      </c>
-      <c r="I8" s="4">
-        <v>6.0044282389084039E-4</v>
-      </c>
-      <c r="J8" s="4">
-        <v>-1.3794018318166575E-2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>4.222582879213118E-6</v>
-      </c>
-      <c r="L8" s="4">
-        <v>8.5420470336085731E-5</v>
-      </c>
-      <c r="M8" s="4">
-        <v>-1.8808789396120872E-6</v>
-      </c>
-      <c r="N8" s="4">
-        <v>-1.380557291850026E-4</v>
-      </c>
-      <c r="O8" s="4">
-        <v>-1.3296445028696763E-4</v>
-      </c>
-      <c r="P8" s="4">
-        <v>2.3038586009592921E-5</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="H15" s="4">
         <v>-1.1738908394724051E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-36.440248401675419</v>
-      </c>
-      <c r="D9" s="4">
-        <v>8.5711575329947665E-2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-4.6134665027390236</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.1099138401010646</v>
-      </c>
-      <c r="G9" s="4">
-        <v>3.1667958915616943E-3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-7.7059339860899495E-2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>-1.3794018318166575E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>48.290712115621027</v>
-      </c>
-      <c r="K9" s="4">
-        <v>-1.0116274927731983E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0.1512957316426764</v>
-      </c>
-      <c r="M9" s="4">
-        <v>-2.972868257114937E-3</v>
-      </c>
-      <c r="N9" s="4">
-        <v>3.1667958914687253E-3</v>
-      </c>
-      <c r="O9" s="4">
-        <v>-7.7059339860927334E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>-1.6822763833527488E-3</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="I15" s="4">
         <v>-1.83006133806348</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>-0.72516532133752731</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5.4643406357876264E-4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>9.9585808110615875E-4</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-2.6320624719421192E-5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>4.0361149902828821E-4</v>
-      </c>
-      <c r="H10" s="4">
-        <v>4.1308486621342085E-4</v>
-      </c>
-      <c r="I10" s="4">
-        <v>4.222582879213118E-6</v>
-      </c>
-      <c r="J10" s="4">
-        <v>-1.0116274927731983E-2</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2.0866752686068551E-2</v>
-      </c>
-      <c r="L10" s="4">
-        <v>6.1764252112221363E-3</v>
-      </c>
-      <c r="M10" s="4">
-        <v>-1.3628547951569179E-4</v>
-      </c>
-      <c r="N10" s="4">
-        <v>4.0361149902829667E-4</v>
-      </c>
-      <c r="O10" s="4">
-        <v>4.1308486621334322E-4</v>
-      </c>
-      <c r="P10" s="4">
-        <v>6.4916357692590757E-5</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="J15" s="4">
         <v>-8.0116635570056771E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6.905081187492188</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.9305934574519595E-3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>-1.5547597491159387E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3.8713232302430619E-4</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2.7228022868254521E-3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-8.0466931606505872E-4</v>
-      </c>
-      <c r="I11" s="4">
-        <v>8.5420470336085731E-5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.1512957316426764</v>
-      </c>
-      <c r="K11" s="4">
-        <v>6.1764252112221363E-3</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0.98565093511474089</v>
-      </c>
-      <c r="M11" s="4">
-        <v>-2.0477000205447154E-2</v>
-      </c>
-      <c r="N11" s="4">
-        <v>2.7228022868038548E-3</v>
-      </c>
-      <c r="O11" s="4">
-        <v>-8.0466931609579628E-4</v>
-      </c>
-      <c r="P11" s="4">
-        <v>-1.375334198365108E-3</v>
-      </c>
-      <c r="Q11" s="4">
+      <c r="K15" s="4">
         <v>-11.789704530453577</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-0.12868226744750794</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-3.9215826092171553E-5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3.0601582871698542E-4</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-7.643592462939163E-6</v>
-      </c>
-      <c r="G12" s="4">
-        <v>-4.6969842548320233E-5</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2.6110918848061635E-5</v>
-      </c>
-      <c r="I12" s="4">
-        <v>-1.8808789396120872E-6</v>
-      </c>
-      <c r="J12" s="4">
-        <v>-2.972868257114937E-3</v>
-      </c>
-      <c r="K12" s="4">
-        <v>-1.3628547951569179E-4</v>
-      </c>
-      <c r="L12" s="4">
-        <v>-2.0477000205447154E-2</v>
-      </c>
-      <c r="M12" s="4">
-        <v>4.2629215885812023E-4</v>
-      </c>
-      <c r="N12" s="4">
-        <v>-4.6969842548117216E-5</v>
-      </c>
-      <c r="O12" s="4">
-        <v>2.61109188486831E-5</v>
-      </c>
-      <c r="P12" s="4">
-        <v>2.2307345343262723E-5</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="L15" s="4">
         <v>0.2445039237348734</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3.9630154353135744E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-2.602657368440803E-4</v>
-      </c>
-      <c r="E13" s="4">
-        <v>-1.6876698489273244E-3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3.5708259358577926E-5</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2.6695229473375229E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1.8051536760197988E-2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>-1.380557291850026E-4</v>
-      </c>
-      <c r="J13" s="4">
-        <v>3.1667958914687253E-3</v>
-      </c>
-      <c r="K13" s="4">
-        <v>4.0361149902829667E-4</v>
-      </c>
-      <c r="L13" s="4">
-        <v>2.7228022868038548E-3</v>
-      </c>
-      <c r="M13" s="4">
-        <v>-4.6969842548117216E-5</v>
-      </c>
-      <c r="N13" s="4">
-        <v>2.6695229473375232E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>1.8051536760197936E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>3.6997136432840937E-4</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="M15" s="4">
         <v>-6.1308688662759264E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.28161278405128931</v>
-      </c>
-      <c r="D14" s="4">
-        <v>-1.2017738306277972E-3</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5.6554129175789957E-3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>-1.292581853302221E-4</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.8051536760197929E-2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2.2470661711412227E-2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>-1.3296445028696763E-4</v>
-      </c>
-      <c r="J14" s="4">
-        <v>-7.7059339860927334E-2</v>
-      </c>
-      <c r="K14" s="4">
-        <v>4.1308486621334322E-4</v>
-      </c>
-      <c r="L14" s="4">
-        <v>-8.0466931609579628E-4</v>
-      </c>
-      <c r="M14" s="4">
-        <v>2.61109188486831E-5</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1.8051536760197936E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>2.2470661711412238E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>2.7717215468628939E-4</v>
-      </c>
-      <c r="Q14" s="4">
+      <c r="N15" s="4">
         <v>-1.7778852112508695E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5">
-        <v>-9.1094011810293862E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-5.8053821501349986E-6</v>
-      </c>
-      <c r="E15" s="4">
-        <v>9.9158329431915139E-5</v>
-      </c>
-      <c r="F15" s="4">
-        <v>-2.2230649277966551E-6</v>
-      </c>
-      <c r="G15" s="4">
-        <v>3.6997136432840932E-4</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2.7717215468628929E-4</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2.3038586009592921E-5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>-1.6822763833527488E-3</v>
-      </c>
-      <c r="K15" s="4">
-        <v>6.4916357692590757E-5</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-1.375334198365108E-3</v>
-      </c>
-      <c r="M15" s="4">
-        <v>2.2307345343262723E-5</v>
-      </c>
-      <c r="N15" s="4">
-        <v>3.6997136432840937E-4</v>
-      </c>
       <c r="O15" s="4">
-        <v>2.7717215468628939E-4</v>
+        <v>6.3497897579125051E-3</v>
       </c>
       <c r="P15" s="4">
-        <v>9.5494681945059552E-4</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>6.3497897579125051E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5">
-        <v>-90.721983727043423</v>
-      </c>
-      <c r="D16" s="4">
-        <v>-2.3068567761102582E-2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.19039686679488499</v>
-      </c>
-      <c r="F16" s="4">
-        <v>-4.7312092617540491E-3</v>
-      </c>
-      <c r="G16" s="4">
-        <v>-6.1308688662759236E-2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>-1.7778852112508667E-2</v>
-      </c>
-      <c r="I16" s="4">
-        <v>-1.1738908394724051E-3</v>
-      </c>
-      <c r="J16" s="4">
-        <v>-1.83006133806348</v>
-      </c>
-      <c r="K16" s="4">
-        <v>-8.0116635570056771E-2</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-11.789704530453577</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.2445039237348734</v>
-      </c>
-      <c r="N16" s="4">
-        <v>-6.1308688662759264E-2</v>
-      </c>
-      <c r="O16" s="4">
-        <v>-1.7778852112508695E-2</v>
-      </c>
-      <c r="P16" s="4">
-        <v>6.3497897579125051E-3</v>
-      </c>
-      <c r="Q16" s="4">
         <v>141.44420667362533</v>
       </c>
     </row>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17859ACA-0498-49C8-9D40-CFB684BACB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768C2E1A-BF06-4059-81BD-146F48A1ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>Deh_c3_High_L1</t>
-  </si>
-  <si>
-    <t>COEFFICIENTS</t>
-  </si>
-  <si>
-    <t>REGRESSORS</t>
   </si>
   <si>
     <t>Dgn_Low</t>
@@ -649,7 +643,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE94349-A37F-4D6A-A43A-D73C8AE6E3E0}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4166C8A3-8125-479C-A99A-1257D5F59E53}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1499,57 +1495,57 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5">
         <v>0.41379566713805094</v>
@@ -1599,7 +1595,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5">
         <v>2.5342748337312027</v>
@@ -1649,7 +1645,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5">
         <v>-3.5462932151367588E-2</v>
@@ -1699,7 +1695,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5">
         <v>3.963015435313573E-2</v>
@@ -1749,7 +1745,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5">
         <v>0.2816127840512892</v>
@@ -1799,7 +1795,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5">
         <v>-3.7910917136234706E-3</v>
@@ -1849,7 +1845,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5">
         <v>-36.440248401675419</v>
@@ -1899,7 +1895,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5">
         <v>-0.72516532133752731</v>
@@ -1949,7 +1945,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5">
         <v>6.905081187492188</v>
@@ -1999,7 +1995,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5">
         <v>-0.12868226744750794</v>
@@ -2049,7 +2045,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5">
         <v>3.9630154353135744E-2</v>
@@ -2099,7 +2095,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5">
         <v>0.28161278405128931</v>
@@ -2149,7 +2145,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5">
         <v>-9.1094011810293862E-2</v>
@@ -2199,7 +2195,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5">
         <v>-90.721983727043423</v>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768C2E1A-BF06-4059-81BD-146F48A1ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A757B2C-8655-4AE8-B476-32F1199B2823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="HU_E1a" sheetId="45" r:id="rId2"/>
     <sheet name="HU_E1b" sheetId="46" r:id="rId3"/>
     <sheet name="HU_E2a" sheetId="47" r:id="rId4"/>
+    <sheet name="HU_E2a (2)" sheetId="48" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -120,9 +121,6 @@
   </si>
   <si>
     <t>HUA</t>
-  </si>
-  <si>
-    <t>REGREESOR</t>
   </si>
   <si>
     <t>Deh_c3_High_L1</t>
@@ -654,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -920,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
@@ -1081,7 +1079,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>0.20548480534059291</v>
@@ -1482,15 +1480,263 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4166C8A3-8125-479C-A99A-1257D5F59E53}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="26.5703125" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.41379566713805094</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.8006708482058549E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-1.0413845165261629E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.7761471073766179E-4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-2.6026573684412492E-4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-1.2017738306277469E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.7834668652452445E-4</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8.5711575329947665E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.5342748337312027</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-1.0413845165261629E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.44461993036470349</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-1.0648507729289675E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-1.6876698489636213E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.6554129175876867E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.1801245536059559E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-4.6134665027390236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3.5462932151367588E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.7761471073766179E-4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-1.0648507729289675E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.5624364995984031E-4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.5708259359456035E-5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-1.2925818533043081E-4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-3.342489340852493E-6</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.1099138401010646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3.963015435313573E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-2.6026573684412492E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1.6876698489636213E-3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.5708259359456035E-5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.6695229473375381E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.8051536760197905E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1.3805572918502144E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3.1667958915616943E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.2816127840512892</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-1.2017738306277469E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.6554129175876867E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-1.2925818533043081E-4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.8051536760197905E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.2470661711412248E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-1.3296445028694755E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-7.7059339860899495E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3.7910917136234706E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.7834668652452445E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.1801245536059559E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-3.342489340852493E-6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-1.3805572918502144E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-1.3296445028694755E-4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6.0044282389084039E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1.3794018318166575E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-36.440248401675419</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8.5711575329947665E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-4.6134665027390236</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1099138401010646</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.1667958915616943E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-7.7059339860899495E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1.3794018318166575E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>48.290712115621027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4668BA-9B37-4004-9304-470683CE908D}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1501,51 +1747,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5">
         <v>0.41379566713805094</v>
@@ -1595,7 +1841,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5">
         <v>2.5342748337312027</v>
@@ -1645,7 +1891,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5">
         <v>-3.5462932151367588E-2</v>
@@ -1695,7 +1941,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5">
         <v>3.963015435313573E-2</v>
@@ -1745,7 +1991,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5">
         <v>0.2816127840512892</v>
@@ -1795,7 +2041,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
         <v>-3.7910917136234706E-3</v>
@@ -1845,7 +2091,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5">
         <v>-36.440248401675419</v>
@@ -1895,7 +2141,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5">
         <v>-0.72516532133752731</v>
@@ -1945,7 +2191,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5">
         <v>6.905081187492188</v>
@@ -1995,7 +2241,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5">
         <v>-0.12868226744750794</v>
@@ -2045,7 +2291,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5">
         <v>3.9630154353135744E-2</v>
@@ -2095,7 +2341,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5">
         <v>0.28161278405128931</v>
@@ -2145,7 +2391,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5">
         <v>-9.1094011810293862E-2</v>
@@ -2195,7 +2441,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5">
         <v>-90.721983727043423</v>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A757B2C-8655-4AE8-B476-32F1199B2823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEE869B-1818-4C80-8E18-C06F6AE02DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
@@ -16,8 +16,7 @@
     <sheet name="Info" sheetId="12" r:id="rId1"/>
     <sheet name="HU_E1a" sheetId="45" r:id="rId2"/>
     <sheet name="HU_E1b" sheetId="46" r:id="rId3"/>
-    <sheet name="HU_E2a" sheetId="47" r:id="rId4"/>
-    <sheet name="HU_E2a (2)" sheetId="48" r:id="rId5"/>
+    <sheet name="HU_E2a" sheetId="48" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -1479,259 +1478,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4166C8A3-8125-479C-A99A-1257D5F59E53}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.41379566713805094</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.8006708482058549E-2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-1.0413845165261629E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2.7761471073766179E-4</v>
-      </c>
-      <c r="F2" s="4">
-        <v>-2.6026573684412492E-4</v>
-      </c>
-      <c r="G2" s="4">
-        <v>-1.2017738306277469E-3</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1.7834668652452445E-4</v>
-      </c>
-      <c r="I2" s="4">
-        <v>8.5711575329947665E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2.5342748337312027</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-1.0413845165261629E-2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.44461993036470349</v>
-      </c>
-      <c r="E3" s="4">
-        <v>-1.0648507729289675E-2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>-1.6876698489636213E-3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5.6554129175876867E-3</v>
-      </c>
-      <c r="H3" s="4">
-        <v>3.1801245536059559E-4</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-4.6134665027390236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5">
-        <v>-3.5462932151367588E-2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2.7761471073766179E-4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-1.0648507729289675E-2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2.5624364995984031E-4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.5708259359456035E-5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-1.2925818533043081E-4</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-3.342489340852493E-6</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.1099138401010646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3.963015435313573E-2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-2.6026573684412492E-4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-1.6876698489636213E-3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3.5708259359456035E-5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.6695229473375381E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.8051536760197905E-2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-1.3805572918502144E-4</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3.1667958915616943E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.2816127840512892</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-1.2017738306277469E-3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5.6554129175876867E-3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-1.2925818533043081E-4</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.8051536760197905E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.2470661711412248E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-1.3296445028694755E-4</v>
-      </c>
-      <c r="I6" s="4">
-        <v>-7.7059339860899495E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5">
-        <v>-3.7910917136234706E-3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.7834668652452445E-4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3.1801245536059559E-4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>-3.342489340852493E-6</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-1.3805572918502144E-4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-1.3296445028694755E-4</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6.0044282389084039E-4</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-1.3794018318166575E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5">
-        <v>-36.440248401675419</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8.5711575329947665E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>-4.6134665027390236</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.1099138401010646</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3.1667958915616943E-3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-7.7059339860899495E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-1.3794018318166575E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>48.290712115621027</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4668BA-9B37-4004-9304-470683CE908D}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEE869B-1818-4C80-8E18-C06F6AE02DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D2401-03E2-4DD5-89E2-188BFED96C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -131,15 +131,6 @@
     <t>Dag_Low</t>
   </si>
   <si>
-    <t>Dag_sq_Low</t>
-  </si>
-  <si>
-    <t>HUA_Low</t>
-  </si>
-  <si>
-    <t>HUB_Low</t>
-  </si>
-  <si>
     <t>Year_transformed_Low</t>
   </si>
   <si>
@@ -155,16 +146,16 @@
     <t>Dag_sq_Medium</t>
   </si>
   <si>
-    <t>HUA_Medium</t>
-  </si>
-  <si>
-    <t>HUB_Medium</t>
-  </si>
-  <si>
     <t>Year_transformed_Medium</t>
   </si>
   <si>
     <t>Constant_Medium</t>
+  </si>
+  <si>
+    <t>HUA_</t>
+  </si>
+  <si>
+    <t>HUB_</t>
   </si>
 </sst>
 </file>
@@ -1479,763 +1470,584 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4668BA-9B37-4004-9304-470683CE908D}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="B2">
+        <v>3.963015435313573E-2</v>
+      </c>
+      <c r="C2">
+        <v>2.6695229473375381E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.8051536760197905E-2</v>
+      </c>
+      <c r="E2">
+        <v>-2.6026573684412492E-4</v>
+      </c>
+      <c r="F2">
+        <v>-1.6876698489636213E-3</v>
+      </c>
+      <c r="G2">
+        <v>3.5708259359456035E-5</v>
+      </c>
+      <c r="H2">
+        <v>-1.3805572918502144E-4</v>
+      </c>
+      <c r="I2">
+        <v>3.1667958915616943E-3</v>
+      </c>
+      <c r="J2">
+        <v>4.0361149902828821E-4</v>
+      </c>
+      <c r="K2">
+        <v>2.7228022868254521E-3</v>
+      </c>
+      <c r="L2">
+        <v>-4.6969842548320233E-5</v>
+      </c>
+      <c r="M2">
+        <v>3.6997136432840932E-4</v>
+      </c>
+      <c r="N2">
+        <v>-6.1308688662759236E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B3">
+        <v>0.2816127840512892</v>
+      </c>
+      <c r="C3">
+        <v>1.8051536760197905E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.2470661711412248E-2</v>
+      </c>
+      <c r="E3">
+        <v>-1.2017738306277469E-3</v>
+      </c>
+      <c r="F3">
+        <v>5.6554129175876867E-3</v>
+      </c>
+      <c r="G3">
+        <v>-1.2925818533043081E-4</v>
+      </c>
+      <c r="H3">
+        <v>-1.3296445028694755E-4</v>
+      </c>
+      <c r="I3">
+        <v>-7.7059339860899495E-2</v>
+      </c>
+      <c r="J3">
+        <v>4.1308486621342085E-4</v>
+      </c>
+      <c r="K3">
+        <v>-8.0466931606505872E-4</v>
+      </c>
+      <c r="L3">
+        <v>2.6110918848061635E-5</v>
+      </c>
+      <c r="M3">
+        <v>2.7717215468628929E-4</v>
+      </c>
+      <c r="N3">
+        <v>-1.7778852112508667E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B4">
         <v>0.41379566713805094</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C4">
+        <v>-2.6026573684412492E-4</v>
+      </c>
+      <c r="D4">
+        <v>-1.2017738306277469E-3</v>
+      </c>
+      <c r="E4">
         <v>1.8006708482058549E-2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F4">
         <v>-1.0413845165261629E-2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="G4">
         <v>2.7761471073766179E-4</v>
       </c>
-      <c r="F2" s="4">
-        <v>-2.6026573684412492E-4</v>
-      </c>
-      <c r="G2" s="4">
-        <v>-1.2017738306277469E-3</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="H4">
         <v>1.7834668652452445E-4</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I4">
         <v>8.5711575329947665E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J4">
         <v>5.4643406357876264E-4</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K4">
         <v>1.9305934574519595E-3</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L4">
         <v>-3.9215826092171553E-5</v>
       </c>
-      <c r="M2" s="4">
-        <v>-2.602657368440803E-4</v>
-      </c>
-      <c r="N2" s="4">
-        <v>-1.2017738306277972E-3</v>
-      </c>
-      <c r="O2" s="4">
+      <c r="M4">
         <v>-5.8053821501349986E-6</v>
       </c>
-      <c r="P2" s="4">
+      <c r="N4">
         <v>-2.3068567761102582E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B5">
         <v>2.5342748337312027</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C5">
+        <v>-1.6876698489636213E-3</v>
+      </c>
+      <c r="D5">
+        <v>5.6554129175876867E-3</v>
+      </c>
+      <c r="E5">
         <v>-1.0413845165261629E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F5">
         <v>0.44461993036470349</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G5">
         <v>-1.0648507729289675E-2</v>
       </c>
-      <c r="F3" s="4">
-        <v>-1.6876698489636213E-3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5.6554129175876867E-3</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="H5">
         <v>3.1801245536059559E-4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I5">
         <v>-4.6134665027390236</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J5">
         <v>9.9585808110615875E-4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K5">
         <v>-1.5547597491159387E-2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L5">
         <v>3.0601582871698542E-4</v>
       </c>
-      <c r="M3" s="4">
-        <v>-1.6876698489273244E-3</v>
-      </c>
-      <c r="N3" s="4">
-        <v>5.6554129175789957E-3</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="M5">
         <v>9.9158329431915139E-5</v>
       </c>
-      <c r="P3" s="4">
+      <c r="N5">
         <v>0.19039686679488499</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-3.5462932151367588E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.5708259359456035E-5</v>
+      </c>
+      <c r="D6">
+        <v>-1.2925818533043081E-4</v>
+      </c>
+      <c r="E6">
+        <v>2.7761471073766179E-4</v>
+      </c>
+      <c r="F6">
+        <v>-1.0648507729289675E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.5624364995984031E-4</v>
+      </c>
+      <c r="H6">
+        <v>-3.342489340852493E-6</v>
+      </c>
+      <c r="I6">
+        <v>0.1099138401010646</v>
+      </c>
+      <c r="J6">
+        <v>-2.6320624719421192E-5</v>
+      </c>
+      <c r="K6">
+        <v>3.8713232302430619E-4</v>
+      </c>
+      <c r="L6">
+        <v>-7.643592462939163E-6</v>
+      </c>
+      <c r="M6">
+        <v>-2.2230649277966551E-6</v>
+      </c>
+      <c r="N6">
+        <v>-4.7312092617540491E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5">
-        <v>-3.5462932151367588E-2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2.7761471073766179E-4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-1.0648507729289675E-2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2.5624364995984031E-4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.5708259359456035E-5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-1.2925818533043081E-4</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="B7">
+        <v>-3.7910917136234706E-3</v>
+      </c>
+      <c r="C7">
+        <v>-1.3805572918502144E-4</v>
+      </c>
+      <c r="D7">
+        <v>-1.3296445028694755E-4</v>
+      </c>
+      <c r="E7">
+        <v>1.7834668652452445E-4</v>
+      </c>
+      <c r="F7">
+        <v>3.1801245536059559E-4</v>
+      </c>
+      <c r="G7">
         <v>-3.342489340852493E-6</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H7">
+        <v>6.0044282389084039E-4</v>
+      </c>
+      <c r="I7">
+        <v>-1.3794018318166575E-2</v>
+      </c>
+      <c r="J7">
+        <v>4.222582879213118E-6</v>
+      </c>
+      <c r="K7">
+        <v>8.5420470336085731E-5</v>
+      </c>
+      <c r="L7">
+        <v>-1.8808789396120872E-6</v>
+      </c>
+      <c r="M7">
+        <v>2.3038586009592921E-5</v>
+      </c>
+      <c r="N7">
+        <v>-1.1738908394724051E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>-36.440248401675419</v>
+      </c>
+      <c r="C8">
+        <v>3.1667958915616943E-3</v>
+      </c>
+      <c r="D8">
+        <v>-7.7059339860899495E-2</v>
+      </c>
+      <c r="E8">
+        <v>8.5711575329947665E-2</v>
+      </c>
+      <c r="F8">
+        <v>-4.6134665027390236</v>
+      </c>
+      <c r="G8">
         <v>0.1099138401010646</v>
       </c>
-      <c r="J4" s="4">
+      <c r="H8">
+        <v>-1.3794018318166575E-2</v>
+      </c>
+      <c r="I8">
+        <v>48.290712115621027</v>
+      </c>
+      <c r="J8">
+        <v>-1.0116274927731983E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.1512957316426764</v>
+      </c>
+      <c r="L8">
+        <v>-2.972868257114937E-3</v>
+      </c>
+      <c r="M8">
+        <v>-1.6822763833527488E-3</v>
+      </c>
+      <c r="N8">
+        <v>-1.83006133806348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>-0.72516532133752731</v>
+      </c>
+      <c r="C9">
+        <v>4.0361149902828821E-4</v>
+      </c>
+      <c r="D9">
+        <v>4.1308486621342085E-4</v>
+      </c>
+      <c r="E9">
+        <v>5.4643406357876264E-4</v>
+      </c>
+      <c r="F9">
+        <v>9.9585808110615875E-4</v>
+      </c>
+      <c r="G9">
         <v>-2.6320624719421192E-5</v>
       </c>
-      <c r="K4" s="4">
+      <c r="H9">
+        <v>4.222582879213118E-6</v>
+      </c>
+      <c r="I9">
+        <v>-1.0116274927731983E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.0866752686068551E-2</v>
+      </c>
+      <c r="K9">
+        <v>6.1764252112221363E-3</v>
+      </c>
+      <c r="L9">
+        <v>-1.3628547951569179E-4</v>
+      </c>
+      <c r="M9">
+        <v>6.4916357692590757E-5</v>
+      </c>
+      <c r="N9">
+        <v>-8.0116635570056771E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>6.905081187492188</v>
+      </c>
+      <c r="C10">
+        <v>2.7228022868254521E-3</v>
+      </c>
+      <c r="D10">
+        <v>-8.0466931606505872E-4</v>
+      </c>
+      <c r="E10">
+        <v>1.9305934574519595E-3</v>
+      </c>
+      <c r="F10">
+        <v>-1.5547597491159387E-2</v>
+      </c>
+      <c r="G10">
         <v>3.8713232302430619E-4</v>
       </c>
-      <c r="L4" s="4">
+      <c r="H10">
+        <v>8.5420470336085731E-5</v>
+      </c>
+      <c r="I10">
+        <v>0.1512957316426764</v>
+      </c>
+      <c r="J10">
+        <v>6.1764252112221363E-3</v>
+      </c>
+      <c r="K10">
+        <v>0.98565093511474089</v>
+      </c>
+      <c r="L10">
+        <v>-2.0477000205447154E-2</v>
+      </c>
+      <c r="M10">
+        <v>-1.375334198365108E-3</v>
+      </c>
+      <c r="N10">
+        <v>-11.789704530453577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>-0.12868226744750794</v>
+      </c>
+      <c r="C11">
+        <v>-4.6969842548320233E-5</v>
+      </c>
+      <c r="D11">
+        <v>2.6110918848061635E-5</v>
+      </c>
+      <c r="E11">
+        <v>-3.9215826092171553E-5</v>
+      </c>
+      <c r="F11">
+        <v>3.0601582871698542E-4</v>
+      </c>
+      <c r="G11">
         <v>-7.643592462939163E-6</v>
       </c>
-      <c r="M4" s="4">
-        <v>3.5708259358577926E-5</v>
-      </c>
-      <c r="N4" s="4">
-        <v>-1.292581853302221E-4</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="H11">
+        <v>-1.8808789396120872E-6</v>
+      </c>
+      <c r="I11">
+        <v>-2.972868257114937E-3</v>
+      </c>
+      <c r="J11">
+        <v>-1.3628547951569179E-4</v>
+      </c>
+      <c r="K11">
+        <v>-2.0477000205447154E-2</v>
+      </c>
+      <c r="L11">
+        <v>4.2629215885812023E-4</v>
+      </c>
+      <c r="M11">
+        <v>2.2307345343262723E-5</v>
+      </c>
+      <c r="N11">
+        <v>0.2445039237348734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>-9.1094011810293862E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.6997136432840932E-4</v>
+      </c>
+      <c r="D12">
+        <v>2.7717215468628929E-4</v>
+      </c>
+      <c r="E12">
+        <v>-5.8053821501349986E-6</v>
+      </c>
+      <c r="F12">
+        <v>9.9158329431915139E-5</v>
+      </c>
+      <c r="G12">
         <v>-2.2230649277966551E-6</v>
       </c>
-      <c r="P4" s="4">
+      <c r="H12">
+        <v>2.3038586009592921E-5</v>
+      </c>
+      <c r="I12">
+        <v>-1.6822763833527488E-3</v>
+      </c>
+      <c r="J12">
+        <v>6.4916357692590757E-5</v>
+      </c>
+      <c r="K12">
+        <v>-1.375334198365108E-3</v>
+      </c>
+      <c r="L12">
+        <v>2.2307345343262723E-5</v>
+      </c>
+      <c r="M12">
+        <v>9.5494681945059552E-4</v>
+      </c>
+      <c r="N12">
+        <v>6.3497897579125051E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>-90.721983727043423</v>
+      </c>
+      <c r="C13">
+        <v>-6.1308688662759236E-2</v>
+      </c>
+      <c r="D13">
+        <v>-1.7778852112508667E-2</v>
+      </c>
+      <c r="E13">
+        <v>-2.3068567761102582E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.19039686679488499</v>
+      </c>
+      <c r="G13">
         <v>-4.7312092617540491E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3.963015435313573E-2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-2.6026573684412492E-4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-1.6876698489636213E-3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3.5708259359456035E-5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.6695229473375381E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.8051536760197905E-2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-1.3805572918502144E-4</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3.1667958915616943E-3</v>
-      </c>
-      <c r="J5" s="4">
-        <v>4.0361149902828821E-4</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2.7228022868254521E-3</v>
-      </c>
-      <c r="L5" s="4">
-        <v>-4.6969842548320233E-5</v>
-      </c>
-      <c r="M5" s="4">
-        <v>2.6695229473375229E-2</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1.8051536760197929E-2</v>
-      </c>
-      <c r="O5" s="4">
-        <v>3.6997136432840932E-4</v>
-      </c>
-      <c r="P5" s="4">
-        <v>-6.1308688662759236E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.2816127840512892</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-1.2017738306277469E-3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5.6554129175876867E-3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-1.2925818533043081E-4</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.8051536760197905E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.2470661711412248E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-1.3296445028694755E-4</v>
-      </c>
-      <c r="I6" s="4">
-        <v>-7.7059339860899495E-2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>4.1308486621342085E-4</v>
-      </c>
-      <c r="K6" s="4">
-        <v>-8.0466931606505872E-4</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2.6110918848061635E-5</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1.8051536760197988E-2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>2.2470661711412227E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2.7717215468628929E-4</v>
-      </c>
-      <c r="P6" s="4">
-        <v>-1.7778852112508667E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5">
-        <v>-3.7910917136234706E-3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.7834668652452445E-4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3.1801245536059559E-4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>-3.342489340852493E-6</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-1.3805572918502144E-4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-1.3296445028694755E-4</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6.0044282389084039E-4</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-1.3794018318166575E-2</v>
-      </c>
-      <c r="J7" s="4">
-        <v>4.222582879213118E-6</v>
-      </c>
-      <c r="K7" s="4">
-        <v>8.5420470336085731E-5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-1.8808789396120872E-6</v>
-      </c>
-      <c r="M7" s="4">
-        <v>-1.380557291850026E-4</v>
-      </c>
-      <c r="N7" s="4">
-        <v>-1.3296445028696763E-4</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2.3038586009592921E-5</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="H13">
         <v>-1.1738908394724051E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5">
-        <v>-36.440248401675419</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8.5711575329947665E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>-4.6134665027390236</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.1099138401010646</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3.1667958915616943E-3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-7.7059339860899495E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-1.3794018318166575E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>48.290712115621027</v>
-      </c>
-      <c r="J8" s="4">
-        <v>-1.0116274927731983E-2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.1512957316426764</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-2.972868257114937E-3</v>
-      </c>
-      <c r="M8" s="4">
-        <v>3.1667958914687253E-3</v>
-      </c>
-      <c r="N8" s="4">
-        <v>-7.7059339860927334E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>-1.6822763833527488E-3</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="I13">
         <v>-1.83006133806348</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-0.72516532133752731</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5.4643406357876264E-4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>9.9585808110615875E-4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-2.6320624719421192E-5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>4.0361149902828821E-4</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4.1308486621342085E-4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4.222582879213118E-6</v>
-      </c>
-      <c r="I9" s="4">
-        <v>-1.0116274927731983E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2.0866752686068551E-2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>6.1764252112221363E-3</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-1.3628547951569179E-4</v>
-      </c>
-      <c r="M9" s="4">
-        <v>4.0361149902829667E-4</v>
-      </c>
-      <c r="N9" s="4">
-        <v>4.1308486621334322E-4</v>
-      </c>
-      <c r="O9" s="4">
-        <v>6.4916357692590757E-5</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="J13">
         <v>-8.0116635570056771E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="5">
-        <v>6.905081187492188</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.9305934574519595E-3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-1.5547597491159387E-2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3.8713232302430619E-4</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2.7228022868254521E-3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-8.0466931606505872E-4</v>
-      </c>
-      <c r="H10" s="4">
-        <v>8.5420470336085731E-5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.1512957316426764</v>
-      </c>
-      <c r="J10" s="4">
-        <v>6.1764252112221363E-3</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.98565093511474089</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-2.0477000205447154E-2</v>
-      </c>
-      <c r="M10" s="4">
-        <v>2.7228022868038548E-3</v>
-      </c>
-      <c r="N10" s="4">
-        <v>-8.0466931609579628E-4</v>
-      </c>
-      <c r="O10" s="4">
-        <v>-1.375334198365108E-3</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="K13">
         <v>-11.789704530453577</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="5">
-        <v>-0.12868226744750794</v>
-      </c>
-      <c r="C11" s="4">
-        <v>-3.9215826092171553E-5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3.0601582871698542E-4</v>
-      </c>
-      <c r="E11" s="4">
-        <v>-7.643592462939163E-6</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-4.6969842548320233E-5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2.6110918848061635E-5</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-1.8808789396120872E-6</v>
-      </c>
-      <c r="I11" s="4">
-        <v>-2.972868257114937E-3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>-1.3628547951569179E-4</v>
-      </c>
-      <c r="K11" s="4">
-        <v>-2.0477000205447154E-2</v>
-      </c>
-      <c r="L11" s="4">
-        <v>4.2629215885812023E-4</v>
-      </c>
-      <c r="M11" s="4">
-        <v>-4.6969842548117216E-5</v>
-      </c>
-      <c r="N11" s="4">
-        <v>2.61109188486831E-5</v>
-      </c>
-      <c r="O11" s="4">
-        <v>2.2307345343262723E-5</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="L13">
         <v>0.2445039237348734</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3.9630154353135744E-2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>-2.602657368440803E-4</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-1.6876698489273244E-3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3.5708259358577926E-5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2.6695229473375229E-2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1.8051536760197988E-2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-1.380557291850026E-4</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3.1667958914687253E-3</v>
-      </c>
-      <c r="J12" s="4">
-        <v>4.0361149902829667E-4</v>
-      </c>
-      <c r="K12" s="4">
-        <v>2.7228022868038548E-3</v>
-      </c>
-      <c r="L12" s="4">
-        <v>-4.6969842548117216E-5</v>
-      </c>
-      <c r="M12" s="4">
-        <v>2.6695229473375232E-2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1.8051536760197936E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>3.6997136432840937E-4</v>
-      </c>
-      <c r="P12" s="4">
-        <v>-6.1308688662759264E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.28161278405128931</v>
-      </c>
-      <c r="C13" s="4">
-        <v>-1.2017738306277972E-3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5.6554129175789957E-3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>-1.292581853302221E-4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.8051536760197929E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2.2470661711412227E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-1.3296445028696763E-4</v>
-      </c>
-      <c r="I13" s="4">
-        <v>-7.7059339860927334E-2</v>
-      </c>
-      <c r="J13" s="4">
-        <v>4.1308486621334322E-4</v>
-      </c>
-      <c r="K13" s="4">
-        <v>-8.0466931609579628E-4</v>
-      </c>
-      <c r="L13" s="4">
-        <v>2.61109188486831E-5</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1.8051536760197936E-2</v>
-      </c>
-      <c r="N13" s="4">
-        <v>2.2470661711412238E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>2.7717215468628939E-4</v>
-      </c>
-      <c r="P13" s="4">
-        <v>-1.7778852112508695E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5">
-        <v>-9.1094011810293862E-2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>-5.8053821501349986E-6</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9.9158329431915139E-5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>-2.2230649277966551E-6</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3.6997136432840932E-4</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2.7717215468628929E-4</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2.3038586009592921E-5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>-1.6822763833527488E-3</v>
-      </c>
-      <c r="J14" s="4">
-        <v>6.4916357692590757E-5</v>
-      </c>
-      <c r="K14" s="4">
-        <v>-1.375334198365108E-3</v>
-      </c>
-      <c r="L14" s="4">
-        <v>2.2307345343262723E-5</v>
-      </c>
-      <c r="M14" s="4">
-        <v>3.6997136432840937E-4</v>
-      </c>
-      <c r="N14" s="4">
-        <v>2.7717215468628939E-4</v>
-      </c>
-      <c r="O14" s="4">
-        <v>9.5494681945059552E-4</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="M13">
         <v>6.3497897579125051E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="5">
-        <v>-90.721983727043423</v>
-      </c>
-      <c r="C15" s="4">
-        <v>-2.3068567761102582E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.19039686679488499</v>
-      </c>
-      <c r="E15" s="4">
-        <v>-4.7312092617540491E-3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>-6.1308688662759236E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>-1.7778852112508667E-2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-1.1738908394724051E-3</v>
-      </c>
-      <c r="I15" s="4">
-        <v>-1.83006133806348</v>
-      </c>
-      <c r="J15" s="4">
-        <v>-8.0116635570056771E-2</v>
-      </c>
-      <c r="K15" s="4">
-        <v>-11.789704530453577</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.2445039237348734</v>
-      </c>
-      <c r="M15" s="4">
-        <v>-6.1308688662759264E-2</v>
-      </c>
-      <c r="N15" s="4">
-        <v>-1.7778852112508695E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>6.3497897579125051E-3</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="N13">
         <v>141.44420667362533</v>
       </c>
     </row>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D2401-03E2-4DD5-89E2-188BFED96C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2344EB1-6822-4C87-BFEB-1B3192FFEFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>HUB_</t>
+  </si>
+  <si>
+    <t>Dag_sq_</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1502,7 @@
         <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
@@ -1701,7 +1704,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>-3.5462932151367588E-2</v>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2344EB1-6822-4C87-BFEB-1B3192FFEFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2739F2EB-A621-413A-B647-110567235FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="8280" yWindow="2595" windowWidth="28800" windowHeight="15345" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>HUB_</t>
   </si>
   <si>
-    <t>Dag_sq_</t>
+    <t>Dag_sq_Low</t>
   </si>
 </sst>
 </file>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7291331D-90DE-415E-83BD-0A2B46A44611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7573AA33-CBB6-485C-AF00-CCF6B37039B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="E1a" sheetId="3" r:id="rId2"/>
-    <sheet name="E1b" sheetId="4" r:id="rId3"/>
-    <sheet name="E2a" sheetId="5" r:id="rId4"/>
+    <sheet name="PL_E1a" sheetId="3" r:id="rId2"/>
+    <sheet name="PL_E1b" sheetId="4" r:id="rId3"/>
+    <sheet name="PL_E2a" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1772,7 +1772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3247,9 +3247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:T1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7573AA33-CBB6-485C-AF00-CCF6B37039B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D42C66D-EBDE-4B2F-BBDF-0D8BCF8219F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>Description:</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Dag_sq_Low</t>
   </si>
   <si>
-    <t>Y2020_Low</t>
-  </si>
-  <si>
     <t>Y2021_Low</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>Dag_sq_Medium</t>
   </si>
   <si>
-    <t>Y2020_Medium</t>
-  </si>
-  <si>
     <t>Y2021_Medium</t>
   </si>
   <si>
@@ -164,13 +158,16 @@
   </si>
   <si>
     <t>PL6_</t>
+  </si>
+  <si>
+    <t>Y2020_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="77" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -188,106 +185,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -566,273 +463,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="100">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1271,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1328,46 +959,7 @@
     <xf numFmtId="2" fontId="54" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="55" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="56" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="62" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="65" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="66" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="68" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="70" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="71" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="73" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="74" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="75" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1756,11 +1348,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1793,16 +1385,16 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
       </c>
       <c r="J1" t="s">
         <v>15</v>
@@ -1941,8 +1533,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>37</v>
+      <c r="A5" s="57" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="11">
         <v>6.4190072143362293E-3</v>
@@ -1982,8 +1574,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>38</v>
+      <c r="A6" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="12">
         <v>-2.7386561938964729E-2</v>
@@ -2023,8 +1615,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
-        <v>39</v>
+      <c r="A7" s="59" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="13">
         <v>1.8886269847779816E-2</v>
@@ -2064,8 +1656,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
-        <v>40</v>
+      <c r="A8" s="60" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="14">
         <v>0.10230029249748195</v>
@@ -2318,16 +1910,16 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
       </c>
       <c r="O1" t="s">
         <v>15</v>
@@ -2791,8 +2383,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
-        <v>37</v>
+      <c r="A10" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="41">
         <v>-0.11280370100427836</v>
@@ -2848,7 +2440,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="43">
         <v>0.14765801784257579</v>
@@ -2904,7 +2496,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="45">
         <v>3.7086456144431824E-2</v>
@@ -2960,7 +2552,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="47">
         <v>0.14286262179509499</v>
@@ -3245,7 +2837,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3254,73 +2846,70 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="94" t="s">
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="94" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="62">
+      <c r="B2">
         <v>-0.42810985445751515</v>
       </c>
       <c r="C2">
@@ -3336,19 +2925,19 @@
         <v>-2.2180042805181494E-4</v>
       </c>
       <c r="G2">
+        <v>-5.5324896085389092E-4</v>
+      </c>
+      <c r="H2">
         <v>-1.180705777733338E-3</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-1.5585750691915812E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3.6250936971131149E-4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.3294217299166361E-2</v>
-      </c>
-      <c r="K2">
-        <v>-5.5324896085389092E-4</v>
       </c>
       <c r="L2">
         <v>1.7198721939736899E-3</v>
@@ -3369,20 +2958,17 @@
         <v>1.0783269614622034E-2</v>
       </c>
       <c r="R2">
-        <v>-5.5324896085405637E-4</v>
+        <v>2.2233406111747426E-3</v>
       </c>
       <c r="S2">
-        <v>2.2233406111747426E-3</v>
-      </c>
-      <c r="T2">
         <v>0.13936901697517656</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="63">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
         <v>-0.34117979954907873</v>
       </c>
       <c r="C3">
@@ -3398,19 +2984,19 @@
         <v>2.5484272463857942E-5</v>
       </c>
       <c r="G3">
+        <v>8.7304371488515758E-4</v>
+      </c>
+      <c r="H3">
         <v>-9.7733728947234193E-4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-5.7399666079350764E-3</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.3896885381833694E-4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.3082891144080707E-2</v>
-      </c>
-      <c r="K3">
-        <v>8.7304371488515758E-4</v>
       </c>
       <c r="L3">
         <v>-1.6250052708554575E-3</v>
@@ -3431,20 +3017,17 @@
         <v>1.1677869825386843E-2</v>
       </c>
       <c r="R3">
-        <v>8.7304371488505599E-4</v>
+        <v>-7.5774829137869679E-3</v>
       </c>
       <c r="S3">
-        <v>-7.5774829137869679E-3</v>
-      </c>
-      <c r="T3">
         <v>0.22634927920258352</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="64">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
         <v>-3.6348095675537533E-2</v>
       </c>
       <c r="C4">
@@ -3460,19 +3043,19 @@
         <v>5.5394637342001934E-5</v>
       </c>
       <c r="G4">
+        <v>4.6451815529680723E-4</v>
+      </c>
+      <c r="H4">
         <v>-1.1405287225127536E-3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1.0364286813646512E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.4404140208148135E-4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.2741260351183524E-2</v>
-      </c>
-      <c r="K4">
-        <v>4.6451815529680723E-4</v>
       </c>
       <c r="L4">
         <v>1.7176935826364362E-3</v>
@@ -3493,20 +3076,17 @@
         <v>1.1819067310418135E-2</v>
       </c>
       <c r="R4">
-        <v>4.6451815529675086E-4</v>
+        <v>-1.0734460577005167E-3</v>
       </c>
       <c r="S4">
-        <v>-1.0734460577005167E-3</v>
-      </c>
-      <c r="T4">
         <v>0.27644900393323169</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5">
         <v>-3.7739823369109457E-2</v>
       </c>
       <c r="C5">
@@ -3522,19 +3102,19 @@
         <v>2.4999335300961021E-4</v>
       </c>
       <c r="G5">
+        <v>-9.5629351866941101E-4</v>
+      </c>
+      <c r="H5">
         <v>-5.3651733503946647E-5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.0849436426212684E-4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-4.7871242250204817E-6</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-5.5210167459380708E-5</v>
-      </c>
-      <c r="K5">
-        <v>-9.5629351866941101E-4</v>
       </c>
       <c r="L5">
         <v>-1.2180629628201398E-3</v>
@@ -3555,330 +3135,312 @@
         <v>-4.192765687167704E-5</v>
       </c>
       <c r="R5">
-        <v>-9.5629351866939605E-4</v>
+        <v>-2.9275421706408105E-3</v>
       </c>
       <c r="S5">
-        <v>-2.9275421706408105E-3</v>
-      </c>
-      <c r="T5">
         <v>2.1657007298017561E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>-1.2073265405911591</v>
+      </c>
+      <c r="C6">
+        <v>-5.5324896085389092E-4</v>
+      </c>
+      <c r="D6">
+        <v>8.7304371488515758E-4</v>
+      </c>
+      <c r="E6">
+        <v>4.6451815529680723E-4</v>
+      </c>
+      <c r="F6">
+        <v>-9.5629351866941101E-4</v>
+      </c>
+      <c r="G6">
+        <v>6.0474412373201426E-2</v>
+      </c>
+      <c r="H6">
+        <v>-2.9223241728487236E-3</v>
+      </c>
+      <c r="I6">
+        <v>5.7739783668752098E-3</v>
+      </c>
+      <c r="J6">
+        <v>-8.3991358960767634E-5</v>
+      </c>
+      <c r="K6">
+        <v>3.0891323863099294E-3</v>
+      </c>
+      <c r="L6">
+        <v>1.2048822111075103E-2</v>
+      </c>
+      <c r="M6">
+        <v>-6.8483072996334715E-2</v>
+      </c>
+      <c r="N6">
+        <v>3.1804823520365563E-4</v>
+      </c>
+      <c r="O6">
+        <v>6.6612731888889276E-3</v>
+      </c>
+      <c r="P6">
+        <v>-1.1980635301275539E-4</v>
+      </c>
+      <c r="Q6">
+        <v>1.4408950208657876E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.3892230893192671E-2</v>
+      </c>
+      <c r="S6">
+        <v>-7.6393196346831616E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B7">
         <v>-0.11581821838596346</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-1.180705777733338E-3</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-9.7733728947234193E-4</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-1.1405287225127536E-3</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-5.3651733503946647E-5</v>
       </c>
-      <c r="G6">
+      <c r="G7">
+        <v>-2.9223241728487236E-3</v>
+      </c>
+      <c r="H7">
         <v>1.3635343971217977E-2</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>6.735557964405274E-3</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>-1.7622103882496294E-4</v>
       </c>
-      <c r="J6">
+      <c r="K7">
         <v>-3.7274412302870348E-4</v>
       </c>
-      <c r="K6">
-        <v>-2.9223241728487236E-3</v>
-      </c>
-      <c r="L6">
+      <c r="L7">
         <v>8.3432692270468851E-4</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>-6.9385984347325624E-2</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>2.0875792007095254E-3</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>7.6436418682022111E-3</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>-1.7606722060131089E-4</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>-5.0749219320046779E-4</v>
       </c>
-      <c r="R6">
-        <v>-2.9223241728486274E-3</v>
-      </c>
-      <c r="S6">
+      <c r="R7">
         <v>-3.0264532465248267E-3</v>
       </c>
-      <c r="T6">
+      <c r="S7">
         <v>-8.1502980435032235E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B8">
         <v>2.5635616884438681</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-1.5585750691915812E-2</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-5.7399666079350764E-3</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-1.0364286813646512E-2</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>3.0849436426212684E-4</v>
       </c>
-      <c r="G7">
+      <c r="G8">
+        <v>5.7739783668752098E-3</v>
+      </c>
+      <c r="H8">
         <v>6.735557964405274E-3</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>0.21882397591414104</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>-5.1797680717706601E-3</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>-7.9806840764326537E-3</v>
       </c>
-      <c r="K7">
-        <v>5.7739783668752098E-3</v>
-      </c>
-      <c r="L7">
+      <c r="L8">
         <v>2.1888593728654135E-2</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>-2.2853612385423787</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>2.5542802199271519E-4</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>0.34900827040695148</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>-7.7847833132934641E-3</v>
       </c>
-      <c r="Q7">
+      <c r="Q8">
         <v>2.4333200146942624E-3</v>
       </c>
-      <c r="R7">
-        <v>5.7739783668786515E-3</v>
-      </c>
-      <c r="S7">
+      <c r="R8">
         <v>0.11744784111344853</v>
       </c>
-      <c r="T7">
+      <c r="S8">
         <v>-3.8831443961643544</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B9">
         <v>-4.8066717422685763E-2</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>3.6250936971131149E-4</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>1.3896885381833694E-4</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2.4404140208148135E-4</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-4.7871242250204817E-6</v>
       </c>
-      <c r="G8">
+      <c r="G9">
+        <v>-8.3991358960767634E-5</v>
+      </c>
+      <c r="H9">
         <v>-1.7622103882496294E-4</v>
       </c>
-      <c r="H8">
+      <c r="I9">
         <v>-5.1797680717706601E-3</v>
       </c>
-      <c r="I8">
+      <c r="J9">
         <v>1.234500603005432E-4</v>
       </c>
-      <c r="J8">
+      <c r="K9">
         <v>1.8965539691813502E-4</v>
       </c>
-      <c r="K8">
-        <v>-8.3991358960767634E-5</v>
-      </c>
-      <c r="L8">
+      <c r="L9">
         <v>-4.8190179695063891E-4</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>5.3741914882832531E-2</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>-1.0167460514225873E-5</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>-8.7009815503651111E-3</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>1.9419292552027689E-4</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>-6.8682784559759638E-5</v>
       </c>
-      <c r="R8">
-        <v>-8.3991358960842227E-5</v>
-      </c>
-      <c r="S8">
+      <c r="R9">
         <v>-2.9384538952128628E-3</v>
       </c>
-      <c r="T8">
+      <c r="S9">
         <v>9.6725413434437524E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="61">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
         <v>-0.36034842905588782</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1.3294217299166361E-2</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1.3082891144080707E-2</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1.2741260351183524E-2</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-5.5210167459380708E-5</v>
       </c>
-      <c r="G9">
+      <c r="G10">
+        <v>3.0891323863099294E-3</v>
+      </c>
+      <c r="H10">
         <v>-3.7274412302870348E-4</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>-7.9806840764326537E-3</v>
       </c>
-      <c r="I9">
+      <c r="J10">
         <v>1.8965539691813502E-4</v>
       </c>
-      <c r="J9">
+      <c r="K10">
         <v>3.2393903845846644E-2</v>
       </c>
-      <c r="K9">
-        <v>3.0891323863099294E-3</v>
-      </c>
-      <c r="L9">
+      <c r="L10">
         <v>-8.1010104598913039E-6</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>6.9902796488167718E-2</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>-1.0890264547783091E-3</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>-1.4468652241800294E-2</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>3.1697426898209086E-4</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>1.2012384574993356E-2</v>
       </c>
-      <c r="R9">
-        <v>3.0891323863097963E-3</v>
-      </c>
-      <c r="S9">
+      <c r="R10">
         <v>1.3457265497723823E-3</v>
       </c>
-      <c r="T9">
+      <c r="S10">
         <v>0.15531469348685284</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="66">
-        <v>-1.2073265405911591</v>
-      </c>
-      <c r="C10">
-        <v>-5.5324896085389092E-4</v>
-      </c>
-      <c r="D10">
-        <v>8.7304371488515758E-4</v>
-      </c>
-      <c r="E10">
-        <v>4.6451815529680723E-4</v>
-      </c>
-      <c r="F10">
-        <v>-9.5629351866941101E-4</v>
-      </c>
-      <c r="G10">
-        <v>-2.9223241728487236E-3</v>
-      </c>
-      <c r="H10">
-        <v>5.7739783668752098E-3</v>
-      </c>
-      <c r="I10">
-        <v>-8.3991358960767634E-5</v>
-      </c>
-      <c r="J10">
-        <v>3.0891323863099294E-3</v>
-      </c>
-      <c r="K10">
-        <v>6.0474412373201426E-2</v>
-      </c>
-      <c r="L10">
-        <v>1.2048822111075103E-2</v>
-      </c>
-      <c r="M10">
-        <v>-6.8483072996334715E-2</v>
-      </c>
-      <c r="N10">
-        <v>3.1804823520365563E-4</v>
-      </c>
-      <c r="O10">
-        <v>6.6612731888889276E-3</v>
-      </c>
-      <c r="P10">
-        <v>-1.1980635301275539E-4</v>
-      </c>
-      <c r="Q10">
-        <v>1.4408950208657876E-3</v>
-      </c>
-      <c r="R10">
-        <v>6.0474412373201447E-2</v>
-      </c>
-      <c r="S10">
-        <v>1.3892230893192671E-2</v>
-      </c>
-      <c r="T10">
-        <v>-7.6393196346831616E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="67">
+      <c r="B11">
         <v>0.38267691211503663</v>
       </c>
       <c r="C11">
@@ -3894,19 +3456,19 @@
         <v>-1.2180629628201398E-3</v>
       </c>
       <c r="G11">
+        <v>1.2048822111075103E-2</v>
+      </c>
+      <c r="H11">
         <v>8.3432692270468851E-4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.1888593728654135E-2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-4.8190179695063891E-4</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-8.1010104598913039E-6</v>
-      </c>
-      <c r="K11">
-        <v>1.2048822111075103E-2</v>
       </c>
       <c r="L11">
         <v>0.16525433227324995</v>
@@ -3927,20 +3489,17 @@
         <v>-1.7327106563189906E-3</v>
       </c>
       <c r="R11">
-        <v>1.2048822111074678E-2</v>
+        <v>0.21065994568645538</v>
       </c>
       <c r="S11">
-        <v>0.21065994568645538</v>
-      </c>
-      <c r="T11">
         <v>-0.30516999809886958</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="68">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
         <v>-29.935741735240395</v>
       </c>
       <c r="C12">
@@ -3956,19 +3515,19 @@
         <v>-8.0500751965215112E-3</v>
       </c>
       <c r="G12">
+        <v>-6.8483072996334715E-2</v>
+      </c>
+      <c r="H12">
         <v>-6.9385984347325624E-2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-2.2853612385423787</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5.3741914882832531E-2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>6.9902796488167718E-2</v>
-      </c>
-      <c r="K12">
-        <v>-6.8483072996334715E-2</v>
       </c>
       <c r="L12">
         <v>-0.22780330729515086</v>
@@ -3989,20 +3548,17 @@
         <v>-2.9952192220673801E-2</v>
       </c>
       <c r="R12">
-        <v>-6.8483072997034711E-2</v>
+        <v>-1.1195151023239589</v>
       </c>
       <c r="S12">
-        <v>-1.1195151023239589</v>
-      </c>
-      <c r="T12">
         <v>38.291921533261075</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="69">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
         <v>-0.93153622381178247</v>
       </c>
       <c r="C13">
@@ -4018,19 +3574,19 @@
         <v>-1.5770525803583939E-4</v>
       </c>
       <c r="G13">
+        <v>3.1804823520365563E-4</v>
+      </c>
+      <c r="H13">
         <v>2.0875792007095254E-3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.5542802199271519E-4</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-1.0167460514225873E-5</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-1.0890264547783091E-3</v>
-      </c>
-      <c r="K13">
-        <v>3.1804823520365563E-4</v>
       </c>
       <c r="L13">
         <v>-2.3698549281644943E-3</v>
@@ -4051,20 +3607,17 @@
         <v>2.823826576787411E-3</v>
       </c>
       <c r="R13">
-        <v>3.1804823520732717E-4</v>
+        <v>4.3865715736399191E-4</v>
       </c>
       <c r="S13">
-        <v>4.3865715736399191E-4</v>
-      </c>
-      <c r="T13">
         <v>-0.20305799573377925</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="70">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
         <v>-0.31600492205094965</v>
       </c>
       <c r="C14">
@@ -4080,19 +3633,19 @@
         <v>-2.1803156558907189E-3</v>
       </c>
       <c r="G14">
+        <v>6.6612731888889276E-3</v>
+      </c>
+      <c r="H14">
         <v>7.6436418682022111E-3</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.34900827040695148</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-8.7009815503651111E-3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-1.4468652241800294E-2</v>
-      </c>
-      <c r="K14">
-        <v>6.6612731888889276E-3</v>
       </c>
       <c r="L14">
         <v>2.8157907757965173E-2</v>
@@ -4113,20 +3666,17 @@
         <v>1.4483592867328587E-2</v>
       </c>
       <c r="R14">
-        <v>6.6612731888761045E-3</v>
+        <v>0.57903884826754037</v>
       </c>
       <c r="S14">
-        <v>0.57903884826754037</v>
-      </c>
-      <c r="T14">
         <v>-15.67082993210812</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="71">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
         <v>2.4424163226648508E-2</v>
       </c>
       <c r="C15">
@@ -4142,19 +3692,19 @@
         <v>4.6831022305089199E-5</v>
       </c>
       <c r="G15">
+        <v>-1.1980635301275539E-4</v>
+      </c>
+      <c r="H15">
         <v>-1.7606722060131089E-4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-7.7847833132934641E-3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.9419292552027689E-4</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3.1697426898209086E-4</v>
-      </c>
-      <c r="K15">
-        <v>-1.1980635301275539E-4</v>
       </c>
       <c r="L15">
         <v>-6.0886302818480113E-4</v>
@@ -4175,20 +3725,17 @@
         <v>-3.0131560831524878E-4</v>
       </c>
       <c r="R15">
-        <v>-1.1980635301460721E-4</v>
+        <v>-1.250599839420391E-2</v>
       </c>
       <c r="S15">
-        <v>-1.250599839420391E-2</v>
-      </c>
-      <c r="T15">
         <v>0.3440460278111015</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="72">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
         <v>0.21891049279469843</v>
       </c>
       <c r="C16">
@@ -4204,19 +3751,19 @@
         <v>-4.192765687167704E-5</v>
       </c>
       <c r="G16">
+        <v>1.4408950208657876E-3</v>
+      </c>
+      <c r="H16">
         <v>-5.0749219320046779E-4</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.4333200146942624E-3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-6.8682784559759638E-5</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.2012384574993356E-2</v>
-      </c>
-      <c r="K16">
-        <v>1.4408950208657876E-3</v>
       </c>
       <c r="L16">
         <v>-1.7327106563189906E-3</v>
@@ -4237,198 +3784,127 @@
         <v>4.4931074372669792E-2</v>
       </c>
       <c r="R16">
-        <v>1.4408950208655465E-3</v>
+        <v>-8.5272147452858486E-3</v>
       </c>
       <c r="S16">
+        <v>-0.18846867614259799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>2.5221588750927721</v>
+      </c>
+      <c r="C17">
+        <v>2.2233406111747426E-3</v>
+      </c>
+      <c r="D17">
+        <v>-7.5774829137869679E-3</v>
+      </c>
+      <c r="E17">
+        <v>-1.0734460577005167E-3</v>
+      </c>
+      <c r="F17">
+        <v>-2.9275421706408105E-3</v>
+      </c>
+      <c r="G17">
+        <v>1.3892230893192671E-2</v>
+      </c>
+      <c r="H17">
+        <v>-3.0264532465248267E-3</v>
+      </c>
+      <c r="I17">
+        <v>0.11744784111344853</v>
+      </c>
+      <c r="J17">
+        <v>-2.9384538952128628E-3</v>
+      </c>
+      <c r="K17">
+        <v>1.3457265497723823E-3</v>
+      </c>
+      <c r="L17">
+        <v>0.21065994568645538</v>
+      </c>
+      <c r="M17">
+        <v>-1.1195151023239589</v>
+      </c>
+      <c r="N17">
+        <v>4.3865715736399191E-4</v>
+      </c>
+      <c r="O17">
+        <v>0.57903884826754037</v>
+      </c>
+      <c r="P17">
+        <v>-1.250599839420391E-2</v>
+      </c>
+      <c r="Q17">
         <v>-8.5272147452858486E-3</v>
       </c>
-      <c r="T16">
+      <c r="R17">
+        <v>1.1337847049663692</v>
+      </c>
+      <c r="S17">
+        <v>-6.6166349876964148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>-5.7631066522682266</v>
+      </c>
+      <c r="C18">
+        <v>0.13936901697517656</v>
+      </c>
+      <c r="D18">
+        <v>0.22634927920258352</v>
+      </c>
+      <c r="E18">
+        <v>0.27644900393323169</v>
+      </c>
+      <c r="F18">
+        <v>2.1657007298017561E-2</v>
+      </c>
+      <c r="G18">
+        <v>-7.6393196346831616E-2</v>
+      </c>
+      <c r="H18">
+        <v>-8.1502980435032235E-2</v>
+      </c>
+      <c r="I18">
+        <v>-3.8831443961643544</v>
+      </c>
+      <c r="J18">
+        <v>9.6725413434437524E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.15531469348685284</v>
+      </c>
+      <c r="L18">
+        <v>-0.30516999809886958</v>
+      </c>
+      <c r="M18">
+        <v>38.291921533261075</v>
+      </c>
+      <c r="N18">
+        <v>-0.20305799573377925</v>
+      </c>
+      <c r="O18">
+        <v>-15.67082993210812</v>
+      </c>
+      <c r="P18">
+        <v>0.3440460278111015</v>
+      </c>
+      <c r="Q18">
         <v>-0.18846867614259799</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="73">
-        <v>-1.2073265405911595</v>
-      </c>
-      <c r="C17">
-        <v>-5.5324896085405637E-4</v>
-      </c>
-      <c r="D17">
-        <v>8.7304371488505599E-4</v>
-      </c>
-      <c r="E17">
-        <v>4.6451815529675086E-4</v>
-      </c>
-      <c r="F17">
-        <v>-9.5629351866939605E-4</v>
-      </c>
-      <c r="G17">
-        <v>-2.9223241728486274E-3</v>
-      </c>
-      <c r="H17">
-        <v>5.7739783668786515E-3</v>
-      </c>
-      <c r="I17">
-        <v>-8.3991358960842227E-5</v>
-      </c>
-      <c r="J17">
-        <v>3.0891323863097963E-3</v>
-      </c>
-      <c r="K17">
-        <v>6.0474412373201447E-2</v>
-      </c>
-      <c r="L17">
-        <v>1.2048822111074678E-2</v>
-      </c>
-      <c r="M17">
-        <v>-6.8483072997034711E-2</v>
-      </c>
-      <c r="N17">
-        <v>3.1804823520732717E-4</v>
-      </c>
-      <c r="O17">
-        <v>6.6612731888761045E-3</v>
-      </c>
-      <c r="P17">
-        <v>-1.1980635301460721E-4</v>
-      </c>
-      <c r="Q17">
-        <v>1.4408950208655465E-3</v>
-      </c>
-      <c r="R17">
-        <v>6.0474412373201461E-2</v>
-      </c>
-      <c r="S17">
-        <v>1.3892230893192671E-2</v>
-      </c>
-      <c r="T17">
-        <v>-7.639319634683206E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="74">
-        <v>2.5221588750927721</v>
-      </c>
-      <c r="C18">
-        <v>2.2233406111747426E-3</v>
-      </c>
-      <c r="D18">
-        <v>-7.5774829137869679E-3</v>
-      </c>
-      <c r="E18">
-        <v>-1.0734460577005167E-3</v>
-      </c>
-      <c r="F18">
-        <v>-2.9275421706408105E-3</v>
-      </c>
-      <c r="G18">
-        <v>-3.0264532465248267E-3</v>
-      </c>
-      <c r="H18">
-        <v>0.11744784111344853</v>
-      </c>
-      <c r="I18">
-        <v>-2.9384538952128628E-3</v>
-      </c>
-      <c r="J18">
-        <v>1.3457265497723823E-3</v>
-      </c>
-      <c r="K18">
-        <v>1.3892230893192671E-2</v>
-      </c>
-      <c r="L18">
-        <v>0.21065994568645538</v>
-      </c>
-      <c r="M18">
-        <v>-1.1195151023239589</v>
-      </c>
-      <c r="N18">
-        <v>4.3865715736399191E-4</v>
-      </c>
-      <c r="O18">
-        <v>0.57903884826754037</v>
-      </c>
-      <c r="P18">
-        <v>-1.250599839420391E-2</v>
-      </c>
-      <c r="Q18">
-        <v>-8.5272147452858486E-3</v>
-      </c>
       <c r="R18">
-        <v>1.3892230893192671E-2</v>
+        <v>-6.6166349876964148</v>
       </c>
       <c r="S18">
-        <v>1.1337847049663692</v>
-      </c>
-      <c r="T18">
-        <v>-6.6166349876964148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="75">
-        <v>-5.7631066522682266</v>
-      </c>
-      <c r="C19">
-        <v>0.13936901697517656</v>
-      </c>
-      <c r="D19">
-        <v>0.22634927920258352</v>
-      </c>
-      <c r="E19">
-        <v>0.27644900393323169</v>
-      </c>
-      <c r="F19">
-        <v>2.1657007298017561E-2</v>
-      </c>
-      <c r="G19">
-        <v>-8.1502980435032235E-2</v>
-      </c>
-      <c r="H19">
-        <v>-3.8831443961643544</v>
-      </c>
-      <c r="I19">
-        <v>9.6725413434437524E-2</v>
-      </c>
-      <c r="J19">
-        <v>0.15531469348685284</v>
-      </c>
-      <c r="K19">
-        <v>-7.6393196346831616E-2</v>
-      </c>
-      <c r="L19">
-        <v>-0.30516999809886958</v>
-      </c>
-      <c r="M19">
-        <v>38.291921533261075</v>
-      </c>
-      <c r="N19">
-        <v>-0.20305799573377925</v>
-      </c>
-      <c r="O19">
-        <v>-15.67082993210812</v>
-      </c>
-      <c r="P19">
-        <v>0.3440460278111015</v>
-      </c>
-      <c r="Q19">
-        <v>-0.18846867614259799</v>
-      </c>
-      <c r="R19">
-        <v>-7.639319634683206E-2</v>
-      </c>
-      <c r="S19">
-        <v>-6.6166349876964148</v>
-      </c>
-      <c r="T19">
         <v>176.8290461332399</v>
       </c>
     </row>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE088E76-0624-4C41-A655-8880AE016F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00BB8EC-6048-4802-A2B5-8CE31A3A0546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>Description:</t>
   </si>
@@ -124,46 +124,46 @@
     <t>PL10</t>
   </si>
   <si>
-    <t>PL10_</t>
-  </si>
-  <si>
     <t>PL5_</t>
   </si>
   <si>
     <t>Regions: PL4 = Polnocno-Zachodni, PL5 = Poludniowo-Zachodni, PL6 = Polnocy, PL10 = Central + East. Poludniowy is the omitted category.</t>
   </si>
   <si>
-    <t>PL6_</t>
-  </si>
-  <si>
     <t>Y2020_</t>
   </si>
   <si>
-    <t>Dgn_</t>
-  </si>
-  <si>
     <t>PL4_</t>
   </si>
   <si>
     <t>Y2021_</t>
   </si>
   <si>
-    <t>Year_transformed_Medium</t>
-  </si>
-  <si>
-    <t>Year_transformed_Low</t>
-  </si>
-  <si>
-    <t>Constant_medium</t>
+    <t>Constant_Medium</t>
+  </si>
+  <si>
+    <t>Dgn_Low</t>
+  </si>
+  <si>
+    <t>PL6_Low</t>
+  </si>
+  <si>
+    <t>PL10_Low</t>
+  </si>
+  <si>
+    <t>Dgn_Medium</t>
+  </si>
+  <si>
+    <t>PL6_Medium</t>
+  </si>
+  <si>
+    <t>PL10_Medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -612,7 +612,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1065,40 +1064,40 @@
         <v>12</v>
       </c>
       <c r="B2" s="35">
-        <v>-0.11591573294237549</v>
+        <v>-0.115915732942376</v>
       </c>
       <c r="C2">
-        <v>8.0012515316581906E-4</v>
+        <v>8.0012515316580659E-4</v>
       </c>
       <c r="D2">
-        <v>6.8810728950365375E-5</v>
+        <v>6.8810728950471437E-5</v>
       </c>
       <c r="E2">
-        <v>-1.1080426310971483E-6</v>
+        <v>-1.1080426310995931E-6</v>
       </c>
       <c r="F2">
-        <v>6.6213741728901814E-6</v>
+        <v>6.6213741728741623E-6</v>
       </c>
       <c r="G2">
-        <v>-1.3969021324480293E-5</v>
+        <v>-1.3969021324504081E-5</v>
       </c>
       <c r="H2">
-        <v>-4.1745532343205366E-5</v>
+        <v>-4.1745532343235548E-5</v>
       </c>
       <c r="I2">
-        <v>-6.0672102806027476E-5</v>
+        <v>-6.0672102806063505E-5</v>
       </c>
       <c r="J2">
-        <v>-1.1003042635652854E-6</v>
+        <v>-1.1003042635647518E-6</v>
       </c>
       <c r="K2">
-        <v>-9.065821497760495E-6</v>
+        <v>-9.0658214977960094E-6</v>
       </c>
       <c r="L2">
-        <v>1.0375499628408085E-5</v>
+        <v>1.0375499628396566E-5</v>
       </c>
       <c r="M2">
-        <v>-1.2939547722718259E-3</v>
+        <v>-1.2939547722732735E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -1106,40 +1105,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="35">
-        <v>-0.12508781231096372</v>
+        <v>-0.1250878123109869</v>
       </c>
       <c r="C3">
-        <v>6.8810728950365375E-5</v>
+        <v>6.8810728950471437E-5</v>
       </c>
       <c r="D3">
-        <v>8.195963752743448E-3</v>
+        <v>8.195963753206123E-3</v>
       </c>
       <c r="E3">
-        <v>-1.9499892998760393E-4</v>
+        <v>-1.9499892999828706E-4</v>
       </c>
       <c r="F3">
-        <v>-1.2176699531157853E-5</v>
+        <v>-1.2176699536609221E-5</v>
       </c>
       <c r="G3">
-        <v>9.3185857797813219E-5</v>
+        <v>9.3185857794229714E-5</v>
       </c>
       <c r="H3">
-        <v>1.1797555789574976E-6</v>
+        <v>1.1797555687902833E-6</v>
       </c>
       <c r="I3">
-        <v>3.3478154753492986E-5</v>
+        <v>3.3478154742968419E-5</v>
       </c>
       <c r="J3">
-        <v>-1.6093199301296397E-5</v>
+        <v>-1.609319930089741E-5</v>
       </c>
       <c r="K3">
-        <v>3.483366228980711E-4</v>
+        <v>3.4833662289888382E-4</v>
       </c>
       <c r="L3">
-        <v>1.2477206058480322E-4</v>
+        <v>1.2477206058272849E-4</v>
       </c>
       <c r="M3">
-        <v>-8.4640375837572113E-2</v>
+        <v>-8.4640375841954871E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -1147,40 +1146,40 @@
         <v>14</v>
       </c>
       <c r="B4" s="35">
-        <v>-3.4968759896994027E-4</v>
+        <v>-3.4968759896939101E-4</v>
       </c>
       <c r="C4">
-        <v>-1.1080426310971483E-6</v>
+        <v>-1.1080426310995931E-6</v>
       </c>
       <c r="D4">
-        <v>-1.9499892998760393E-4</v>
+        <v>-1.9499892999828706E-4</v>
       </c>
       <c r="E4">
-        <v>4.6588644599930364E-6</v>
+        <v>4.6588644602472242E-6</v>
       </c>
       <c r="F4">
-        <v>6.7143586249534138E-7</v>
+        <v>6.7143586262490354E-7</v>
       </c>
       <c r="G4">
-        <v>-2.0442903611591441E-6</v>
+        <v>-2.0442903610739393E-6</v>
       </c>
       <c r="H4">
-        <v>3.3179424226527972E-7</v>
+        <v>3.3179424250698905E-7</v>
       </c>
       <c r="I4">
-        <v>-6.1411548433202212E-7</v>
+        <v>-6.1411548408173405E-7</v>
       </c>
       <c r="J4">
-        <v>4.1135355757311771E-7</v>
+        <v>4.1135355756361739E-7</v>
       </c>
       <c r="K4">
-        <v>-7.9904983671513086E-6</v>
+        <v>-7.9904983671707971E-6</v>
       </c>
       <c r="L4">
-        <v>-2.796051404739628E-6</v>
+        <v>-2.7960514046904052E-6</v>
       </c>
       <c r="M4">
-        <v>2.0048167968894641E-3</v>
+        <v>2.0048167969937457E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
@@ -1188,40 +1187,40 @@
         <v>29</v>
       </c>
       <c r="B5" s="35">
-        <v>5.91915946373269E-2</v>
+        <v>5.9191594637327906E-2</v>
       </c>
       <c r="C5">
-        <v>6.6213741728901814E-6</v>
+        <v>6.6213741728741623E-6</v>
       </c>
       <c r="D5">
-        <v>-1.2176699531157853E-5</v>
+        <v>-1.2176699536609221E-5</v>
       </c>
       <c r="E5">
-        <v>6.7143586249534138E-7</v>
+        <v>6.7143586262490354E-7</v>
       </c>
       <c r="F5">
-        <v>2.3497545443862573E-3</v>
+        <v>2.3497545443862994E-3</v>
       </c>
       <c r="G5">
-        <v>1.0972232896405824E-3</v>
+        <v>1.0972232896405908E-3</v>
       </c>
       <c r="H5">
-        <v>1.0988987826982017E-3</v>
+        <v>1.0988987826982769E-3</v>
       </c>
       <c r="I5">
-        <v>1.0962102560971396E-3</v>
+        <v>1.096210256097217E-3</v>
       </c>
       <c r="J5">
-        <v>-1.7854737849475849E-7</v>
+        <v>-1.7854737849867179E-7</v>
       </c>
       <c r="K5">
-        <v>5.8908183561347372E-6</v>
+        <v>5.8908183560744666E-6</v>
       </c>
       <c r="L5">
-        <v>-6.2473858235320535E-5</v>
+        <v>-6.2473858235311591E-5</v>
       </c>
       <c r="M5">
-        <v>-1.1253500241731483E-3</v>
+        <v>-1.1253500241234248E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -1229,40 +1228,40 @@
         <v>30</v>
       </c>
       <c r="B6" s="35">
-        <v>-2.1136851948129198E-2</v>
+        <v>-2.1136851948129184E-2</v>
       </c>
       <c r="C6">
-        <v>-1.3969021324480293E-5</v>
+        <v>-1.3969021324504081E-5</v>
       </c>
       <c r="D6">
-        <v>9.3185857797813219E-5</v>
+        <v>9.3185857794229714E-5</v>
       </c>
       <c r="E6">
-        <v>-2.0442903611591441E-6</v>
+        <v>-2.0442903610739393E-6</v>
       </c>
       <c r="F6">
-        <v>1.0972232896405824E-3</v>
+        <v>1.0972232896405908E-3</v>
       </c>
       <c r="G6">
-        <v>3.2573410672571742E-3</v>
+        <v>3.2573410672571499E-3</v>
       </c>
       <c r="H6">
-        <v>1.0967866364757978E-3</v>
+        <v>1.096786636475815E-3</v>
       </c>
       <c r="I6">
-        <v>1.0913547974313348E-3</v>
+        <v>1.0913547974313491E-3</v>
       </c>
       <c r="J6">
-        <v>-2.0092542913884212E-6</v>
+        <v>-2.0092542913915815E-6</v>
       </c>
       <c r="K6">
-        <v>1.7129175464707089E-4</v>
+        <v>1.7129175464700345E-4</v>
       </c>
       <c r="L6">
-        <v>-4.7684092750207206E-5</v>
+        <v>-4.7684092750208067E-5</v>
       </c>
       <c r="M6">
-        <v>-2.1004841705175108E-3</v>
+        <v>-2.1004841704864979E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -1270,40 +1269,40 @@
         <v>31</v>
       </c>
       <c r="B7" s="35">
-        <v>5.4312210971024677E-2</v>
+        <v>5.4312210971025204E-2</v>
       </c>
       <c r="C7">
-        <v>-4.1745532343205366E-5</v>
+        <v>-4.1745532343235548E-5</v>
       </c>
       <c r="D7">
-        <v>1.1797555789574976E-6</v>
+        <v>1.1797555687902833E-6</v>
       </c>
       <c r="E7">
-        <v>3.3179424226527972E-7</v>
+        <v>3.3179424250698905E-7</v>
       </c>
       <c r="F7">
-        <v>1.0988987826982017E-3</v>
+        <v>1.0988987826982769E-3</v>
       </c>
       <c r="G7">
-        <v>1.0967866364757978E-3</v>
+        <v>1.096786636475815E-3</v>
       </c>
       <c r="H7">
-        <v>2.3147148512871261E-3</v>
+        <v>2.3147148512872731E-3</v>
       </c>
       <c r="I7">
-        <v>1.094306077423798E-3</v>
+        <v>1.0943060774239474E-3</v>
       </c>
       <c r="J7">
-        <v>-7.4132874245188966E-6</v>
+        <v>-7.413287424527062E-6</v>
       </c>
       <c r="K7">
-        <v>2.4641374835073933E-5</v>
+        <v>2.4641374834986126E-5</v>
       </c>
       <c r="L7">
-        <v>-2.8142984244029366E-5</v>
+        <v>-2.8142984244005189E-5</v>
       </c>
       <c r="M7">
-        <v>-1.112116788237394E-3</v>
+        <v>-1.112116788147475E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -1311,40 +1310,40 @@
         <v>32</v>
       </c>
       <c r="B8" s="35">
-        <v>0.15328509668661414</v>
+        <v>0.15328509668661464</v>
       </c>
       <c r="C8">
-        <v>-6.0672102806027476E-5</v>
+        <v>-6.0672102806063505E-5</v>
       </c>
       <c r="D8">
-        <v>3.3478154753492986E-5</v>
+        <v>3.3478154742968419E-5</v>
       </c>
       <c r="E8">
-        <v>-6.1411548433202212E-7</v>
+        <v>-6.1411548408173405E-7</v>
       </c>
       <c r="F8">
-        <v>1.0962102560971396E-3</v>
+        <v>1.096210256097217E-3</v>
       </c>
       <c r="G8">
-        <v>1.0913547974313348E-3</v>
+        <v>1.0913547974313491E-3</v>
       </c>
       <c r="H8">
-        <v>1.094306077423798E-3</v>
+        <v>1.0943060774239474E-3</v>
       </c>
       <c r="I8">
-        <v>1.5633303741349348E-3</v>
+        <v>1.5633303741350941E-3</v>
       </c>
       <c r="J8">
-        <v>5.1970404955301177E-7</v>
+        <v>5.1970404954421618E-7</v>
       </c>
       <c r="K8">
-        <v>3.1024508693386283E-5</v>
+        <v>3.1024508693288711E-5</v>
       </c>
       <c r="L8">
-        <v>-2.8200283912781666E-5</v>
+        <v>-2.8200283912757813E-5</v>
       </c>
       <c r="M8">
-        <v>-1.4943990410213096E-3</v>
+        <v>-1.4943990409232227E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
@@ -1352,40 +1351,40 @@
         <v>15</v>
       </c>
       <c r="B9" s="35">
-        <v>-3.293611546425447E-2</v>
+        <v>-3.2936115464254574E-2</v>
       </c>
       <c r="C9">
-        <v>-1.1003042635652854E-6</v>
+        <v>-1.1003042635647518E-6</v>
       </c>
       <c r="D9">
-        <v>-1.6093199301296397E-5</v>
+        <v>-1.609319930089741E-5</v>
       </c>
       <c r="E9">
-        <v>4.1135355757311771E-7</v>
+        <v>4.1135355756361739E-7</v>
       </c>
       <c r="F9">
-        <v>-1.7854737849475849E-7</v>
+        <v>-1.7854737849867179E-7</v>
       </c>
       <c r="G9">
-        <v>-2.0092542913884212E-6</v>
+        <v>-2.0092542913915815E-6</v>
       </c>
       <c r="H9">
-        <v>-7.4132874245188966E-6</v>
+        <v>-7.413287424527062E-6</v>
       </c>
       <c r="I9">
-        <v>5.1970404955301177E-7</v>
+        <v>5.1970404954421618E-7</v>
       </c>
       <c r="J9">
-        <v>1.6970698073553845E-5</v>
+        <v>1.6970698073554496E-5</v>
       </c>
       <c r="K9">
-        <v>-7.4650587313307537E-5</v>
+        <v>-7.4650587313309624E-5</v>
       </c>
       <c r="L9">
-        <v>-9.1942136666455166E-5</v>
+        <v>-9.1942136666458174E-5</v>
       </c>
       <c r="M9">
-        <v>-1.0729363715600391E-4</v>
+        <v>-1.0729363716077841E-4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -1393,40 +1392,40 @@
         <v>16</v>
       </c>
       <c r="B10" s="35">
-        <v>-5.6163349206163921E-2</v>
+        <v>-5.6163349206163324E-2</v>
       </c>
       <c r="C10">
-        <v>-9.065821497760495E-6</v>
+        <v>-9.0658214977960094E-6</v>
       </c>
       <c r="D10">
-        <v>3.483366228980711E-4</v>
+        <v>3.4833662289888382E-4</v>
       </c>
       <c r="E10">
-        <v>-7.9904983671513086E-6</v>
+        <v>-7.9904983671707971E-6</v>
       </c>
       <c r="F10">
-        <v>5.8908183561347372E-6</v>
+        <v>5.8908183560744666E-6</v>
       </c>
       <c r="G10">
-        <v>1.7129175464707089E-4</v>
+        <v>1.7129175464700345E-4</v>
       </c>
       <c r="H10">
-        <v>2.4641374835073933E-5</v>
+        <v>2.4641374834986126E-5</v>
       </c>
       <c r="I10">
-        <v>3.1024508693386283E-5</v>
+        <v>3.1024508693288711E-5</v>
       </c>
       <c r="J10">
-        <v>-7.4650587313307537E-5</v>
+        <v>-7.4650587313309624E-5</v>
       </c>
       <c r="K10">
-        <v>3.4355718036810047E-3</v>
+        <v>3.4355718036809704E-3</v>
       </c>
       <c r="L10">
-        <v>6.3328170672211537E-4</v>
+        <v>6.3328170672210182E-4</v>
       </c>
       <c r="M10">
-        <v>-2.8176833302084826E-3</v>
+        <v>-2.8176833302186602E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
@@ -1434,40 +1433,40 @@
         <v>17</v>
       </c>
       <c r="B11" s="35">
-        <v>0.17483071893267899</v>
+        <v>0.17483071893267974</v>
       </c>
       <c r="C11">
-        <v>1.0375499628408085E-5</v>
+        <v>1.0375499628396566E-5</v>
       </c>
       <c r="D11">
-        <v>1.2477206058480322E-4</v>
+        <v>1.2477206058272849E-4</v>
       </c>
       <c r="E11">
-        <v>-2.796051404739628E-6</v>
+        <v>-2.7960514046904052E-6</v>
       </c>
       <c r="F11">
-        <v>-6.2473858235320535E-5</v>
+        <v>-6.2473858235311591E-5</v>
       </c>
       <c r="G11">
-        <v>-4.7684092750207206E-5</v>
+        <v>-4.7684092750208067E-5</v>
       </c>
       <c r="H11">
-        <v>-2.8142984244029366E-5</v>
+        <v>-2.8142984244005189E-5</v>
       </c>
       <c r="I11">
-        <v>-2.8200283912781666E-5</v>
+        <v>-2.8200283912757813E-5</v>
       </c>
       <c r="J11">
-        <v>-9.1942136666455166E-5</v>
+        <v>-9.1942136666458174E-5</v>
       </c>
       <c r="K11">
-        <v>6.3328170672211537E-4</v>
+        <v>6.3328170672210182E-4</v>
       </c>
       <c r="L11">
-        <v>3.5108481261870656E-3</v>
+        <v>3.5108481261870751E-3</v>
       </c>
       <c r="M11">
-        <v>-1.2981478574426676E-4</v>
+        <v>-1.2981478572179862E-4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -1475,40 +1474,40 @@
         <v>18</v>
       </c>
       <c r="B12" s="35">
-        <v>3.9107555893259409</v>
+        <v>3.9107555893261834</v>
       </c>
       <c r="C12">
-        <v>-1.2939547722718259E-3</v>
+        <v>-1.2939547722732735E-3</v>
       </c>
       <c r="D12">
-        <v>-8.4640375837572113E-2</v>
+        <v>-8.4640375841954871E-2</v>
       </c>
       <c r="E12">
-        <v>2.0048167968894641E-3</v>
+        <v>2.0048167969937457E-3</v>
       </c>
       <c r="F12">
-        <v>-1.1253500241731483E-3</v>
+        <v>-1.1253500241234248E-3</v>
       </c>
       <c r="G12">
-        <v>-2.1004841705175108E-3</v>
+        <v>-2.1004841704864979E-3</v>
       </c>
       <c r="H12">
-        <v>-1.112116788237394E-3</v>
+        <v>-1.112116788147475E-3</v>
       </c>
       <c r="I12">
-        <v>-1.4943990410213096E-3</v>
+        <v>-1.4943990409232227E-3</v>
       </c>
       <c r="J12">
-        <v>-1.0729363715600391E-4</v>
+        <v>-1.0729363716077841E-4</v>
       </c>
       <c r="K12">
-        <v>-2.8176833302084826E-3</v>
+        <v>-2.8176833302186602E-3</v>
       </c>
       <c r="L12">
-        <v>-1.2981478574426676E-4</v>
+        <v>-1.2981478572179862E-4</v>
       </c>
       <c r="M12">
-        <v>0.88351018599487285</v>
+        <v>0.88351018604023257</v>
       </c>
     </row>
   </sheetData>
@@ -1588,55 +1587,55 @@
         <v>12</v>
       </c>
       <c r="B2" s="35">
-        <v>-0.23244529859315732</v>
+        <v>-0.22260729915519242</v>
       </c>
       <c r="C2">
-        <v>2.6858094706350829E-3</v>
+        <v>2.3750352181286767E-3</v>
       </c>
       <c r="D2">
-        <v>6.6645746185954688E-4</v>
+        <v>4.2155056802967541E-4</v>
       </c>
       <c r="E2">
-        <v>-1.4108361502738115E-5</v>
+        <v>-8.6997583729220397E-6</v>
       </c>
       <c r="F2">
-        <v>9.4214949584942465E-4</v>
+        <v>8.1309224251637424E-4</v>
       </c>
       <c r="G2">
-        <v>-3.9043404109832965E-4</v>
+        <v>-2.283617508770838E-4</v>
       </c>
       <c r="H2">
-        <v>-1.3360334768207436E-4</v>
+        <v>1.5329632084609278E-5</v>
       </c>
       <c r="I2">
-        <v>8.1558189770273442E-4</v>
+        <v>6.6485118855013183E-4</v>
       </c>
       <c r="J2">
-        <v>-3.0756347738958767E-4</v>
+        <v>-2.3914005241117909E-4</v>
       </c>
       <c r="K2">
-        <v>-2.1279808342315474E-4</v>
+        <v>-1.1729287693344983E-4</v>
       </c>
       <c r="L2">
-        <v>1.1338350233476527E-3</v>
+        <v>6.4454326053115657E-4</v>
       </c>
       <c r="M2">
-        <v>-1.5579932147826521E-4</v>
+        <v>-7.5901979433997763E-5</v>
       </c>
       <c r="N2">
-        <v>-1.1577744261103907E-4</v>
+        <v>5.2828393765723522E-6</v>
       </c>
       <c r="O2">
-        <v>4.6009612148971283E-5</v>
+        <v>1.5426342093355513E-5</v>
       </c>
       <c r="P2">
-        <v>2.6181171279152332E-5</v>
+        <v>7.8927292604103285E-5</v>
       </c>
       <c r="Q2">
-        <v>-3.9636785102960498E-4</v>
+        <v>-1.962067197916579E-4</v>
       </c>
       <c r="R2">
-        <v>-9.6438790521759365E-3</v>
+        <v>-6.5034556438204978E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
@@ -1644,55 +1643,55 @@
         <v>13</v>
       </c>
       <c r="B3" s="35">
-        <v>-0.49975637176774834</v>
+        <v>-0.48124588429781529</v>
       </c>
       <c r="C3">
-        <v>6.6645746185954688E-4</v>
+        <v>4.2155056802967541E-4</v>
       </c>
       <c r="D3">
-        <v>1.0726978372904707E-2</v>
+        <v>8.4357097561277052E-3</v>
       </c>
       <c r="E3">
-        <v>-2.2480693865412085E-4</v>
+        <v>-1.7420270285616897E-4</v>
       </c>
       <c r="F3">
-        <v>3.1118422973987793E-3</v>
+        <v>2.0558295788966202E-3</v>
       </c>
       <c r="G3">
-        <v>1.0078584355178461E-3</v>
+        <v>9.0087095775862741E-4</v>
       </c>
       <c r="H3">
-        <v>6.8701376631889743E-5</v>
+        <v>3.5806048128832028E-4</v>
       </c>
       <c r="I3">
-        <v>-2.0871711123511393E-3</v>
+        <v>-2.1088712540221245E-3</v>
       </c>
       <c r="J3">
-        <v>2.9067864321478355E-3</v>
+        <v>2.4881083127599622E-3</v>
       </c>
       <c r="K3">
-        <v>-7.0892041797920337E-4</v>
+        <v>-3.6069797828895082E-4</v>
       </c>
       <c r="L3">
-        <v>6.354448150602543E-4</v>
+        <v>6.0530785019376893E-4</v>
       </c>
       <c r="M3">
-        <v>-3.1901317502973489E-4</v>
+        <v>-1.7055954452283115E-4</v>
       </c>
       <c r="N3">
-        <v>-1.3784008805097117E-3</v>
+        <v>-9.8098246948695369E-4</v>
       </c>
       <c r="O3">
-        <v>8.7158950986283151E-5</v>
+        <v>4.686121160329005E-5</v>
       </c>
       <c r="P3">
-        <v>3.4454396050129579E-4</v>
+        <v>3.4718884278017725E-4</v>
       </c>
       <c r="Q3">
-        <v>6.4337351364188167E-4</v>
+        <v>5.6614791808517334E-4</v>
       </c>
       <c r="R3">
-        <v>-0.12713659996566468</v>
+        <v>-0.10122680829425459</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
@@ -1700,55 +1699,55 @@
         <v>14</v>
       </c>
       <c r="B4" s="35">
-        <v>6.0671852168265707E-3</v>
+        <v>5.8202276787729596E-3</v>
       </c>
       <c r="C4">
-        <v>-1.4108361502738115E-5</v>
+        <v>-8.6997583729220397E-6</v>
       </c>
       <c r="D4">
-        <v>-2.2480693865412085E-4</v>
+        <v>-1.7420270285616897E-4</v>
       </c>
       <c r="E4">
-        <v>4.7515108649701117E-6</v>
+        <v>3.6293766170270217E-6</v>
       </c>
       <c r="F4">
-        <v>-7.3315725715530542E-5</v>
+        <v>-4.8599993822273798E-5</v>
       </c>
       <c r="G4">
-        <v>-2.0764055544974863E-5</v>
+        <v>-1.8190671980426964E-5</v>
       </c>
       <c r="H4">
-        <v>2.0194842841710558E-6</v>
+        <v>-4.9042137514401514E-6</v>
       </c>
       <c r="I4">
-        <v>4.1968897437079479E-5</v>
+        <v>4.2467131865717806E-5</v>
       </c>
       <c r="J4">
-        <v>-6.6859115314951061E-5</v>
+        <v>-5.6708895896009085E-5</v>
       </c>
       <c r="K4">
-        <v>1.4949814401956783E-5</v>
+        <v>7.4789670047383866E-6</v>
       </c>
       <c r="L4">
-        <v>-1.2794836244482081E-5</v>
+        <v>-1.3080818316321989E-5</v>
       </c>
       <c r="M4">
-        <v>6.7495750624141755E-6</v>
+        <v>3.2785579279991111E-6</v>
       </c>
       <c r="N4">
-        <v>2.8708077320798212E-5</v>
+        <v>2.0254091874741064E-5</v>
       </c>
       <c r="O4">
-        <v>-1.8872078247764488E-6</v>
+        <v>-1.011718785046546E-6</v>
       </c>
       <c r="P4">
-        <v>-7.0958651936447407E-6</v>
+        <v>-7.0036535761164591E-6</v>
       </c>
       <c r="Q4">
-        <v>-1.5172390542610549E-5</v>
+        <v>-1.2949868857157392E-5</v>
       </c>
       <c r="R4">
-        <v>2.6437164082796505E-3</v>
+        <v>2.0738735865006258E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
@@ -1756,55 +1755,55 @@
         <v>19</v>
       </c>
       <c r="B5" s="35">
-        <v>0.17455765178693461</v>
+        <v>0.12831899838376848</v>
       </c>
       <c r="C5">
-        <v>9.4214949584942465E-4</v>
+        <v>8.1309224251637424E-4</v>
       </c>
       <c r="D5">
-        <v>3.1118422973987793E-3</v>
+        <v>2.0558295788966202E-3</v>
       </c>
       <c r="E5">
-        <v>-7.3315725715530542E-5</v>
+        <v>-4.8599993822273798E-5</v>
       </c>
       <c r="F5">
-        <v>8.5428748813543148E-3</v>
+        <v>6.7737474336403711E-3</v>
       </c>
       <c r="G5">
-        <v>9.0551255662552803E-4</v>
+        <v>7.1635978537423024E-4</v>
       </c>
       <c r="H5">
-        <v>1.5354314033562649E-4</v>
+        <v>3.1121555947629547E-4</v>
       </c>
       <c r="I5">
-        <v>-5.0547593358302558E-4</v>
+        <v>-3.4197829048368561E-4</v>
       </c>
       <c r="J5">
-        <v>1.5193230275162442E-3</v>
+        <v>1.0981878678303725E-3</v>
       </c>
       <c r="K5">
-        <v>2.1187150977172167E-4</v>
+        <v>4.2047483480142162E-4</v>
       </c>
       <c r="L5">
-        <v>-5.7170378454371104E-4</v>
+        <v>-3.4034147251780144E-4</v>
       </c>
       <c r="M5">
-        <v>-3.9124821749573292E-4</v>
+        <v>-1.8157973081825063E-4</v>
       </c>
       <c r="N5">
-        <v>-5.8751062444759646E-4</v>
+        <v>-4.6350579945754445E-4</v>
       </c>
       <c r="O5">
-        <v>-3.8817122656915892E-5</v>
+        <v>-4.2934799525757834E-5</v>
       </c>
       <c r="P5">
-        <v>1.3106612797128166E-3</v>
+        <v>1.0782436382860332E-3</v>
       </c>
       <c r="Q5">
-        <v>7.3139839308536143E-4</v>
+        <v>4.694574382930819E-4</v>
       </c>
       <c r="R5">
-        <v>-3.3368059874220084E-2</v>
+        <v>-2.2106866076342033E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
@@ -1812,55 +1811,55 @@
         <v>20</v>
       </c>
       <c r="B6" s="35">
-        <v>-8.2331339822573416E-2</v>
+        <v>-6.0296751627517298E-2</v>
       </c>
       <c r="C6">
-        <v>-3.9043404109832965E-4</v>
+        <v>-2.283617508770838E-4</v>
       </c>
       <c r="D6">
-        <v>1.0078584355178461E-3</v>
+        <v>9.0087095775862741E-4</v>
       </c>
       <c r="E6">
-        <v>-2.0764055544974863E-5</v>
+        <v>-1.8190671980426964E-5</v>
       </c>
       <c r="F6">
-        <v>9.0551255662552803E-4</v>
+        <v>7.1635978537423024E-4</v>
       </c>
       <c r="G6">
-        <v>3.7360072198491887E-3</v>
+        <v>3.5405858643392059E-3</v>
       </c>
       <c r="H6">
-        <v>-6.5958186544649985E-4</v>
+        <v>-6.3288077242741668E-4</v>
       </c>
       <c r="I6">
-        <v>-1.0362684277870728E-4</v>
+        <v>-7.118784888603309E-5</v>
       </c>
       <c r="J6">
-        <v>6.7738601047690925E-4</v>
+        <v>6.221958321719896E-4</v>
       </c>
       <c r="K6">
-        <v>-2.3235227354571431E-4</v>
+        <v>-1.019015902437374E-4</v>
       </c>
       <c r="L6">
-        <v>-7.9556532888948837E-4</v>
+        <v>-6.2235732358796852E-4</v>
       </c>
       <c r="M6">
-        <v>-1.2674100384229994E-4</v>
+        <v>-1.0294372327834507E-4</v>
       </c>
       <c r="N6">
-        <v>-9.6777221645030819E-5</v>
+        <v>1.9243965161820208E-5</v>
       </c>
       <c r="O6">
-        <v>-4.9145775610846603E-5</v>
+        <v>-1.828183914478641E-5</v>
       </c>
       <c r="P6">
-        <v>4.2274965739996957E-4</v>
+        <v>2.1726193841290539E-4</v>
       </c>
       <c r="Q6">
-        <v>5.9187507879174435E-4</v>
+        <v>4.227916497628768E-4</v>
       </c>
       <c r="R6">
-        <v>-1.151161642051312E-2</v>
+        <v>-1.1004123583320181E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
@@ -1868,55 +1867,55 @@
         <v>21</v>
       </c>
       <c r="B7" s="35">
-        <v>0.51420954922597129</v>
+        <v>0.50738364088471122</v>
       </c>
       <c r="C7">
-        <v>-1.3360334768207436E-4</v>
+        <v>1.5329632084609278E-5</v>
       </c>
       <c r="D7">
-        <v>6.8701376631889743E-5</v>
+        <v>3.5806048128832028E-4</v>
       </c>
       <c r="E7">
-        <v>2.0194842841710558E-6</v>
+        <v>-4.9042137514401514E-6</v>
       </c>
       <c r="F7">
-        <v>1.5354314033562649E-4</v>
+        <v>3.1121555947629547E-4</v>
       </c>
       <c r="G7">
-        <v>-6.5958186544649985E-4</v>
+        <v>-6.3288077242741668E-4</v>
       </c>
       <c r="H7">
-        <v>3.4250446164384792E-3</v>
+        <v>2.6920038033831184E-3</v>
       </c>
       <c r="I7">
-        <v>-3.1602278138743816E-4</v>
+        <v>-1.9436580263156619E-4</v>
       </c>
       <c r="J7">
-        <v>-9.4304636748306211E-4</v>
+        <v>-8.8578710351396701E-4</v>
       </c>
       <c r="K7">
-        <v>1.7614750369299896E-4</v>
+        <v>-4.2640615351560422E-5</v>
       </c>
       <c r="L7">
-        <v>-4.3307132645579484E-4</v>
+        <v>-2.0269898463133769E-4</v>
       </c>
       <c r="M7">
-        <v>2.007223356013869E-4</v>
+        <v>-1.8863899044961174E-5</v>
       </c>
       <c r="N7">
-        <v>1.7876445576136364E-4</v>
+        <v>-1.1915192177713342E-4</v>
       </c>
       <c r="O7">
-        <v>-4.4925783422675061E-5</v>
+        <v>3.6530058291728111E-7</v>
       </c>
       <c r="P7">
-        <v>8.0055138614469612E-5</v>
+        <v>3.2899266860514018E-5</v>
       </c>
       <c r="Q7">
-        <v>7.8653872988928945E-4</v>
+        <v>4.074174472180319E-4</v>
       </c>
       <c r="R7">
-        <v>-4.1930086334373527E-3</v>
+        <v>-7.1010047112840327E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
@@ -1924,55 +1923,55 @@
         <v>22</v>
       </c>
       <c r="B8" s="35">
-        <v>-0.34351954612606744</v>
+        <v>-0.38278369506207915</v>
       </c>
       <c r="C8">
-        <v>8.1558189770273442E-4</v>
+        <v>6.6485118855013183E-4</v>
       </c>
       <c r="D8">
-        <v>-2.0871711123511393E-3</v>
+        <v>-2.1088712540221245E-3</v>
       </c>
       <c r="E8">
-        <v>4.1968897437079479E-5</v>
+        <v>4.2467131865717806E-5</v>
       </c>
       <c r="F8">
-        <v>-5.0547593358302558E-4</v>
+        <v>-3.4197829048368561E-4</v>
       </c>
       <c r="G8">
-        <v>-1.0362684277870728E-4</v>
+        <v>-7.118784888603309E-5</v>
       </c>
       <c r="H8">
-        <v>-3.1602278138743816E-4</v>
+        <v>-1.9436580263156619E-4</v>
       </c>
       <c r="I8">
-        <v>1.2415763951111483E-2</v>
+        <v>1.2944380749023829E-2</v>
       </c>
       <c r="J8">
-        <v>-1.2637855900305087E-2</v>
+        <v>-1.3225855802364289E-2</v>
       </c>
       <c r="K8">
-        <v>-6.1212063469327934E-4</v>
+        <v>-4.9237663797508649E-4</v>
       </c>
       <c r="L8">
-        <v>-6.2118537948801979E-4</v>
+        <v>-5.377153830132958E-4</v>
       </c>
       <c r="M8">
-        <v>-3.9941450857684113E-4</v>
+        <v>-3.191739593668947E-4</v>
       </c>
       <c r="N8">
-        <v>-3.1063576950681371E-4</v>
+        <v>-3.1177784544342106E-4</v>
       </c>
       <c r="O8">
-        <v>4.8111756527561558E-5</v>
+        <v>-4.8443170172593909E-8</v>
       </c>
       <c r="P8">
-        <v>-6.276744170699523E-4</v>
+        <v>-3.610079015715867E-4</v>
       </c>
       <c r="Q8">
-        <v>-8.9917246810055241E-4</v>
+        <v>-5.5418258874428191E-4</v>
       </c>
       <c r="R8">
-        <v>2.4389898523812278E-2</v>
+        <v>2.5325265484449484E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
@@ -1980,55 +1979,55 @@
         <v>23</v>
       </c>
       <c r="B9" s="35">
-        <v>-0.10915141475408822</v>
+        <v>-9.6530622843243027E-2</v>
       </c>
       <c r="C9">
-        <v>-3.0756347738958767E-4</v>
+        <v>-2.3914005241117909E-4</v>
       </c>
       <c r="D9">
-        <v>2.9067864321478355E-3</v>
+        <v>2.4881083127599622E-3</v>
       </c>
       <c r="E9">
-        <v>-6.6859115314951061E-5</v>
+        <v>-5.6708895896009085E-5</v>
       </c>
       <c r="F9">
-        <v>1.5193230275162442E-3</v>
+        <v>1.0981878678303725E-3</v>
       </c>
       <c r="G9">
-        <v>6.7738601047690925E-4</v>
+        <v>6.221958321719896E-4</v>
       </c>
       <c r="H9">
-        <v>-9.4304636748306211E-4</v>
+        <v>-8.8578710351396701E-4</v>
       </c>
       <c r="I9">
-        <v>-1.2637855900305087E-2</v>
+        <v>-1.3225855802364289E-2</v>
       </c>
       <c r="J9">
-        <v>2.8790309491959334E-2</v>
+        <v>2.8789939982814226E-2</v>
       </c>
       <c r="K9">
-        <v>5.5617523074429759E-4</v>
+        <v>5.0255358159739989E-4</v>
       </c>
       <c r="L9">
-        <v>2.445076154489953E-4</v>
+        <v>2.299843075857259E-4</v>
       </c>
       <c r="M9">
-        <v>6.0456894245667186E-5</v>
+        <v>1.3662942036930497E-4</v>
       </c>
       <c r="N9">
-        <v>7.7066720928575588E-4</v>
+        <v>7.6206843314260866E-4</v>
       </c>
       <c r="O9">
-        <v>-5.413554952477201E-5</v>
+        <v>-3.289114189238137E-5</v>
       </c>
       <c r="P9">
-        <v>5.7991619152975796E-4</v>
+        <v>4.1595334184614183E-4</v>
       </c>
       <c r="Q9">
-        <v>1.1293322852870963E-3</v>
+        <v>8.118363454844308E-4</v>
       </c>
       <c r="R9">
-        <v>-3.0175345870560588E-2</v>
+        <v>-2.62990617683675E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
@@ -2036,55 +2035,55 @@
         <v>29</v>
       </c>
       <c r="B10" s="35">
-        <v>-0.10645130448082649</v>
+        <v>-6.3495536255600421E-2</v>
       </c>
       <c r="C10">
-        <v>-2.1279808342315474E-4</v>
+        <v>-1.1729287693344983E-4</v>
       </c>
       <c r="D10">
-        <v>-7.0892041797920337E-4</v>
+        <v>-3.6069797828895082E-4</v>
       </c>
       <c r="E10">
-        <v>1.4949814401956783E-5</v>
+        <v>7.4789670047383866E-6</v>
       </c>
       <c r="F10">
-        <v>2.1187150977172167E-4</v>
+        <v>4.2047483480142162E-4</v>
       </c>
       <c r="G10">
-        <v>-2.3235227354571431E-4</v>
+        <v>-1.019015902437374E-4</v>
       </c>
       <c r="H10">
-        <v>1.7614750369299896E-4</v>
+        <v>-4.2640615351560422E-5</v>
       </c>
       <c r="I10">
-        <v>-6.1212063469327934E-4</v>
+        <v>-4.9237663797508649E-4</v>
       </c>
       <c r="J10">
-        <v>5.5617523074429759E-4</v>
+        <v>5.0255358159739989E-4</v>
       </c>
       <c r="K10">
-        <v>6.4699250649637103E-3</v>
+        <v>5.7142640594180279E-3</v>
       </c>
       <c r="L10">
-        <v>2.1327020354287773E-3</v>
+        <v>1.8996946369695253E-3</v>
       </c>
       <c r="M10">
-        <v>2.5330099733255045E-3</v>
+        <v>2.1286971777751177E-3</v>
       </c>
       <c r="N10">
-        <v>2.5708493893839899E-3</v>
+        <v>2.1049145980000109E-3</v>
       </c>
       <c r="O10">
-        <v>-6.8991654548631595E-5</v>
+        <v>-1.3298113876112669E-5</v>
       </c>
       <c r="P10">
-        <v>1.5948008106527335E-4</v>
+        <v>-2.1299680325048427E-5</v>
       </c>
       <c r="Q10">
-        <v>2.3679560315687605E-4</v>
+        <v>-9.6547387681228749E-6</v>
       </c>
       <c r="R10">
-        <v>6.8350469902819962E-3</v>
+        <v>2.4336673109189928E-3</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
@@ -2092,55 +2091,55 @@
         <v>30</v>
       </c>
       <c r="B11" s="35">
-        <v>9.1346403623130942E-2</v>
+        <v>0.11862370106898203</v>
       </c>
       <c r="C11">
-        <v>1.1338350233476527E-3</v>
+        <v>6.4454326053115657E-4</v>
       </c>
       <c r="D11">
-        <v>6.354448150602543E-4</v>
+        <v>6.0530785019376893E-4</v>
       </c>
       <c r="E11">
-        <v>-1.2794836244482081E-5</v>
+        <v>-1.3080818316321989E-5</v>
       </c>
       <c r="F11">
-        <v>-5.7170378454371104E-4</v>
+        <v>-3.4034147251780144E-4</v>
       </c>
       <c r="G11">
-        <v>-7.9556532888948837E-4</v>
+        <v>-6.2235732358796852E-4</v>
       </c>
       <c r="H11">
-        <v>-4.3307132645579484E-4</v>
+        <v>-2.0269898463133769E-4</v>
       </c>
       <c r="I11">
-        <v>-6.2118537948801979E-4</v>
+        <v>-5.377153830132958E-4</v>
       </c>
       <c r="J11">
-        <v>2.445076154489953E-4</v>
+        <v>2.299843075857259E-4</v>
       </c>
       <c r="K11">
-        <v>2.1327020354287773E-3</v>
+        <v>1.8996946369695253E-3</v>
       </c>
       <c r="L11">
-        <v>1.3606878405188328E-2</v>
+        <v>1.1618453387895012E-2</v>
       </c>
       <c r="M11">
-        <v>2.2722710378207567E-3</v>
+        <v>2.0627342320515543E-3</v>
       </c>
       <c r="N11">
-        <v>2.2391722960746945E-3</v>
+        <v>1.9402948975472505E-3</v>
       </c>
       <c r="O11">
-        <v>3.6876574057158524E-4</v>
+        <v>2.5834567848185077E-4</v>
       </c>
       <c r="P11">
-        <v>-2.0821499385435247E-3</v>
+        <v>-1.2908640032114303E-3</v>
       </c>
       <c r="Q11">
-        <v>-2.4902735885647272E-3</v>
+        <v>-1.5784630256012685E-3</v>
       </c>
       <c r="R11">
-        <v>-1.5644718182949411E-2</v>
+        <v>-1.2990251240483641E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
@@ -2148,55 +2147,55 @@
         <v>31</v>
       </c>
       <c r="B12" s="35">
-        <v>-3.3705293600589818E-2</v>
+        <v>-4.1171086671036868E-2</v>
       </c>
       <c r="C12">
-        <v>-1.5579932147826521E-4</v>
+        <v>-7.5901979433997763E-5</v>
       </c>
       <c r="D12">
-        <v>-3.1901317502973489E-4</v>
+        <v>-1.7055954452283115E-4</v>
       </c>
       <c r="E12">
-        <v>6.7495750624141755E-6</v>
+        <v>3.2785579279991111E-6</v>
       </c>
       <c r="F12">
-        <v>-3.9124821749573292E-4</v>
+        <v>-1.8157973081825063E-4</v>
       </c>
       <c r="G12">
-        <v>-1.2674100384229994E-4</v>
+        <v>-1.0294372327834507E-4</v>
       </c>
       <c r="H12">
-        <v>2.007223356013869E-4</v>
+        <v>-1.8863899044961174E-5</v>
       </c>
       <c r="I12">
-        <v>-3.9941450857684113E-4</v>
+        <v>-3.191739593668947E-4</v>
       </c>
       <c r="J12">
-        <v>6.0456894245667186E-5</v>
+        <v>1.3662942036930497E-4</v>
       </c>
       <c r="K12">
-        <v>2.5330099733255045E-3</v>
+        <v>2.1286971777751177E-3</v>
       </c>
       <c r="L12">
-        <v>2.2722710378207567E-3</v>
+        <v>2.0627342320515543E-3</v>
       </c>
       <c r="M12">
-        <v>6.3921523218460306E-3</v>
+        <v>5.6340418142316901E-3</v>
       </c>
       <c r="N12">
-        <v>2.5721570410698236E-3</v>
+        <v>2.1349440442742628E-3</v>
       </c>
       <c r="O12">
-        <v>-6.9515171247697081E-5</v>
+        <v>-4.2328919679493936E-5</v>
       </c>
       <c r="P12">
-        <v>8.8031416241438802E-5</v>
+        <v>7.2657368021874198E-5</v>
       </c>
       <c r="Q12">
-        <v>2.3332660567069248E-4</v>
+        <v>6.7936044723453695E-5</v>
       </c>
       <c r="R12">
-        <v>2.3379457792914856E-3</v>
+        <v>8.4458148905801821E-4</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
@@ -2204,55 +2203,55 @@
         <v>32</v>
       </c>
       <c r="B13" s="35">
-        <v>7.0830864022418866E-2</v>
+        <v>0.10972953703779008</v>
       </c>
       <c r="C13">
-        <v>-1.1577744261103907E-4</v>
+        <v>5.2828393765723522E-6</v>
       </c>
       <c r="D13">
-        <v>-1.3784008805097117E-3</v>
+        <v>-9.8098246948695369E-4</v>
       </c>
       <c r="E13">
-        <v>2.8708077320798212E-5</v>
+        <v>2.0254091874741064E-5</v>
       </c>
       <c r="F13">
-        <v>-5.8751062444759646E-4</v>
+        <v>-4.6350579945754445E-4</v>
       </c>
       <c r="G13">
-        <v>-9.6777221645030819E-5</v>
+        <v>1.9243965161820208E-5</v>
       </c>
       <c r="H13">
-        <v>1.7876445576136364E-4</v>
+        <v>-1.1915192177713342E-4</v>
       </c>
       <c r="I13">
-        <v>-3.1063576950681371E-4</v>
+        <v>-3.1177784544342106E-4</v>
       </c>
       <c r="J13">
-        <v>7.7066720928575588E-4</v>
+        <v>7.6206843314260866E-4</v>
       </c>
       <c r="K13">
-        <v>2.5708493893839899E-3</v>
+        <v>2.1049145980000109E-3</v>
       </c>
       <c r="L13">
-        <v>2.2391722960746945E-3</v>
+        <v>1.9402948975472505E-3</v>
       </c>
       <c r="M13">
-        <v>2.5721570410698236E-3</v>
+        <v>2.1349440442742628E-3</v>
       </c>
       <c r="N13">
-        <v>4.2328264058681415E-3</v>
+        <v>3.6284694040562065E-3</v>
       </c>
       <c r="O13">
-        <v>-1.2304719433000615E-4</v>
+        <v>-5.0391297825130171E-5</v>
       </c>
       <c r="P13">
-        <v>7.2239702424560862E-4</v>
+        <v>4.0720030185549235E-4</v>
       </c>
       <c r="Q13">
-        <v>6.1771237280999584E-4</v>
+        <v>1.8395545858839965E-4</v>
       </c>
       <c r="R13">
-        <v>1.5563765566195207E-2</v>
+        <v>1.040820431738605E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -2260,55 +2259,55 @@
         <v>15</v>
       </c>
       <c r="B14" s="35">
-        <v>2.1281264213116768E-2</v>
+        <v>3.7724077173186044E-2</v>
       </c>
       <c r="C14">
-        <v>4.6009612148971283E-5</v>
+        <v>1.5426342093355513E-5</v>
       </c>
       <c r="D14">
-        <v>8.7158950986283151E-5</v>
+        <v>4.686121160329005E-5</v>
       </c>
       <c r="E14">
-        <v>-1.8872078247764488E-6</v>
+        <v>-1.011718785046546E-6</v>
       </c>
       <c r="F14">
-        <v>-3.8817122656915892E-5</v>
+        <v>-4.2934799525757834E-5</v>
       </c>
       <c r="G14">
-        <v>-4.9145775610846603E-5</v>
+        <v>-1.828183914478641E-5</v>
       </c>
       <c r="H14">
-        <v>-4.4925783422675061E-5</v>
+        <v>3.6530058291728111E-7</v>
       </c>
       <c r="I14">
-        <v>4.8111756527561558E-5</v>
+        <v>-4.8443170172593909E-8</v>
       </c>
       <c r="J14">
-        <v>-5.413554952477201E-5</v>
+        <v>-3.289114189238137E-5</v>
       </c>
       <c r="K14">
-        <v>-6.8991654548631595E-5</v>
+        <v>-1.3298113876112669E-5</v>
       </c>
       <c r="L14">
-        <v>3.6876574057158524E-4</v>
+        <v>2.5834567848185077E-4</v>
       </c>
       <c r="M14">
-        <v>-6.9515171247697081E-5</v>
+        <v>-4.2328919679493936E-5</v>
       </c>
       <c r="N14">
-        <v>-1.2304719433000615E-4</v>
+        <v>-5.0391297825130171E-5</v>
       </c>
       <c r="O14">
-        <v>8.8187608940748467E-5</v>
+        <v>7.0719647512287913E-5</v>
       </c>
       <c r="P14">
-        <v>-4.0259050291979579E-4</v>
+        <v>-2.9703085566323823E-4</v>
       </c>
       <c r="Q14">
-        <v>-4.8722940633339948E-4</v>
+        <v>-3.5372750480772478E-4</v>
       </c>
       <c r="R14">
-        <v>-2.2741794884137637E-3</v>
+        <v>-1.6379543440840131E-3</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
@@ -2316,55 +2315,55 @@
         <v>16</v>
       </c>
       <c r="B15" s="35">
-        <v>0.16871341022797692</v>
+        <v>3.7404535257401887E-2</v>
       </c>
       <c r="C15">
-        <v>2.6181171279152332E-5</v>
+        <v>7.8927292604103285E-5</v>
       </c>
       <c r="D15">
-        <v>3.4454396050129579E-4</v>
+        <v>3.4718884278017725E-4</v>
       </c>
       <c r="E15">
-        <v>-7.0958651936447407E-6</v>
+        <v>-7.0036535761164591E-6</v>
       </c>
       <c r="F15">
-        <v>1.3106612797128166E-3</v>
+        <v>1.0782436382860332E-3</v>
       </c>
       <c r="G15">
-        <v>4.2274965739996957E-4</v>
+        <v>2.1726193841290539E-4</v>
       </c>
       <c r="H15">
-        <v>8.0055138614469612E-5</v>
+        <v>3.2899266860514018E-5</v>
       </c>
       <c r="I15">
-        <v>-6.276744170699523E-4</v>
+        <v>-3.610079015715867E-4</v>
       </c>
       <c r="J15">
-        <v>5.7991619152975796E-4</v>
+        <v>4.1595334184614183E-4</v>
       </c>
       <c r="K15">
-        <v>1.5948008106527335E-4</v>
+        <v>-2.1299680325048427E-5</v>
       </c>
       <c r="L15">
-        <v>-2.0821499385435247E-3</v>
+        <v>-1.2908640032114303E-3</v>
       </c>
       <c r="M15">
-        <v>8.8031416241438802E-5</v>
+        <v>7.2657368021874198E-5</v>
       </c>
       <c r="N15">
-        <v>7.2239702424560862E-4</v>
+        <v>4.0720030185549235E-4</v>
       </c>
       <c r="O15">
-        <v>-4.0259050291979579E-4</v>
+        <v>-2.9703085566323823E-4</v>
       </c>
       <c r="P15">
-        <v>8.9656867256591583E-3</v>
+        <v>7.6462940645472544E-3</v>
       </c>
       <c r="Q15">
-        <v>3.0021271131442477E-3</v>
+        <v>2.1680196787444996E-3</v>
       </c>
       <c r="R15">
-        <v>8.0931693008181108E-4</v>
+        <v>-5.3260542704425349E-4</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -2372,55 +2371,55 @@
         <v>17</v>
       </c>
       <c r="B16" s="35">
-        <v>0.64390900220170677</v>
+        <v>0.53145971593761721</v>
       </c>
       <c r="C16">
-        <v>-3.9636785102960498E-4</v>
+        <v>-1.962067197916579E-4</v>
       </c>
       <c r="D16">
-        <v>6.4337351364188167E-4</v>
+        <v>5.6614791808517334E-4</v>
       </c>
       <c r="E16">
-        <v>-1.5172390542610549E-5</v>
+        <v>-1.2949868857157392E-5</v>
       </c>
       <c r="F16">
-        <v>7.3139839308536143E-4</v>
+        <v>4.694574382930819E-4</v>
       </c>
       <c r="G16">
-        <v>5.9187507879174435E-4</v>
+        <v>4.227916497628768E-4</v>
       </c>
       <c r="H16">
-        <v>7.8653872988928945E-4</v>
+        <v>4.074174472180319E-4</v>
       </c>
       <c r="I16">
-        <v>-8.9917246810055241E-4</v>
+        <v>-5.5418258874428191E-4</v>
       </c>
       <c r="J16">
-        <v>1.1293322852870963E-3</v>
+        <v>8.118363454844308E-4</v>
       </c>
       <c r="K16">
-        <v>2.3679560315687605E-4</v>
+        <v>-9.6547387681228749E-6</v>
       </c>
       <c r="L16">
-        <v>-2.4902735885647272E-3</v>
+        <v>-1.5784630256012685E-3</v>
       </c>
       <c r="M16">
-        <v>2.3332660567069248E-4</v>
+        <v>6.7936044723453695E-5</v>
       </c>
       <c r="N16">
-        <v>6.1771237280999584E-4</v>
+        <v>1.8395545858839965E-4</v>
       </c>
       <c r="O16">
-        <v>-4.8722940633339948E-4</v>
+        <v>-3.5372750480772478E-4</v>
       </c>
       <c r="P16">
-        <v>3.0021271131442477E-3</v>
+        <v>2.1680196787444996E-3</v>
       </c>
       <c r="Q16">
-        <v>6.6985018852939058E-3</v>
+        <v>5.400013609851843E-3</v>
       </c>
       <c r="R16">
-        <v>-6.8240311737497068E-4</v>
+        <v>-1.4543991262105163E-3</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
@@ -2428,55 +2427,55 @@
         <v>18</v>
       </c>
       <c r="B17" s="35">
-        <v>6.0703049000238751</v>
+        <v>5.5194498696438954</v>
       </c>
       <c r="C17">
-        <v>-9.6438790521759365E-3</v>
+        <v>-6.5034556438204978E-3</v>
       </c>
       <c r="D17">
-        <v>-0.12713659996566468</v>
+        <v>-0.10122680829425459</v>
       </c>
       <c r="E17">
-        <v>2.6437164082796505E-3</v>
+        <v>2.0738735865006258E-3</v>
       </c>
       <c r="F17">
-        <v>-3.3368059874220084E-2</v>
+        <v>-2.2106866076342033E-2</v>
       </c>
       <c r="G17">
-        <v>-1.151161642051312E-2</v>
+        <v>-1.1004123583320181E-2</v>
       </c>
       <c r="H17">
-        <v>-4.1930086334373527E-3</v>
+        <v>-7.1010047112840327E-3</v>
       </c>
       <c r="I17">
-        <v>2.4389898523812278E-2</v>
+        <v>2.5325265484449484E-2</v>
       </c>
       <c r="J17">
-        <v>-3.0175345870560588E-2</v>
+        <v>-2.62990617683675E-2</v>
       </c>
       <c r="K17">
-        <v>6.8350469902819962E-3</v>
+        <v>2.4336673109189928E-3</v>
       </c>
       <c r="L17">
-        <v>-1.5644718182949411E-2</v>
+        <v>-1.2990251240483641E-2</v>
       </c>
       <c r="M17">
-        <v>2.3379457792914856E-3</v>
+        <v>8.4458148905801821E-4</v>
       </c>
       <c r="N17">
-        <v>1.5563765566195207E-2</v>
+        <v>1.040820431738605E-2</v>
       </c>
       <c r="O17">
-        <v>-2.2741794884137637E-3</v>
+        <v>-1.6379543440840131E-3</v>
       </c>
       <c r="P17">
-        <v>8.0931693008181108E-4</v>
+        <v>-5.3260542704425349E-4</v>
       </c>
       <c r="Q17">
-        <v>-6.8240311737497068E-4</v>
+        <v>-1.4543991262105163E-3</v>
       </c>
       <c r="R17">
-        <v>1.5411596699370931</v>
+        <v>1.2445242797813665</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2485,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2495,7 +2494,7 @@
     <col min="1" max="1" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
@@ -2503,37 +2502,37 @@
         <v>11</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="35" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="35" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>26</v>
       </c>
       <c r="N1" s="35" t="s">
         <v>27</v>
@@ -2542,805 +2541,909 @@
         <v>28</v>
       </c>
       <c r="P1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="35">
+        <v>7.0944253261648799E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.128146454872471E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.9616986952992232E-2</v>
+      </c>
+      <c r="E2">
+        <v>-3.9351297457867473E-3</v>
+      </c>
+      <c r="F2">
+        <v>-2.727377091870431E-3</v>
+      </c>
+      <c r="G2">
+        <v>-5.6253515497966915E-4</v>
+      </c>
+      <c r="H2">
+        <v>-1.029143489505507E-3</v>
+      </c>
+      <c r="I2">
+        <v>4.9471515549009802E-5</v>
+      </c>
+      <c r="J2">
+        <v>2.8645431821247576E-2</v>
+      </c>
+      <c r="K2">
+        <v>2.8398115922850013E-2</v>
+      </c>
+      <c r="L2">
+        <v>-2.6426091414162634E-2</v>
+      </c>
+      <c r="M2">
+        <v>-7.6036995320992451E-4</v>
+      </c>
+      <c r="N2">
+        <v>4.4371421986043214E-2</v>
+      </c>
+      <c r="O2">
+        <v>-9.2902782734355718E-4</v>
+      </c>
+      <c r="P2">
+        <v>3.1613351037507453E-2</v>
+      </c>
+      <c r="Q2">
+        <v>3.1213729089431388E-2</v>
+      </c>
+      <c r="R2">
+        <v>-0.55844614351246458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="35">
+        <v>-0.16438163720714047</v>
+      </c>
+      <c r="C3">
+        <v>2.9616986952992232E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.5640944917421284E-2</v>
+      </c>
+      <c r="E3">
+        <v>-5.5092413706483816E-3</v>
+      </c>
+      <c r="F3">
+        <v>-5.0146608098482134E-3</v>
+      </c>
+      <c r="G3">
+        <v>-2.2680570766579712E-3</v>
+      </c>
+      <c r="H3">
+        <v>-8.467478632994456E-3</v>
+      </c>
+      <c r="I3">
+        <v>1.9329097197924838E-4</v>
+      </c>
+      <c r="J3">
+        <v>3.1544909058266284E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.1961330602481533E-2</v>
+      </c>
+      <c r="L3">
+        <v>6.2390742811506708E-2</v>
+      </c>
+      <c r="M3">
+        <v>-6.1146728693350708E-3</v>
+      </c>
+      <c r="N3">
+        <v>5.7653563144451608E-2</v>
+      </c>
+      <c r="O3">
+        <v>-1.1899717679921063E-3</v>
+      </c>
+      <c r="P3">
+        <v>2.6287368156533542E-2</v>
+      </c>
+      <c r="Q3">
+        <v>2.596349859953177E-2</v>
+      </c>
+      <c r="R3">
+        <v>-0.71911374605839495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="35">
+        <v>-0.60318744978923156</v>
+      </c>
+      <c r="C4">
+        <v>-3.9351297457867473E-3</v>
+      </c>
+      <c r="D4">
+        <v>-5.5092413706483816E-3</v>
+      </c>
+      <c r="E4">
+        <v>5.5503081138502629E-2</v>
+      </c>
+      <c r="F4">
+        <v>6.9614357229187051E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.7008222084606908E-4</v>
+      </c>
+      <c r="H4">
+        <v>-2.5403141918197451E-3</v>
+      </c>
+      <c r="I4">
+        <v>1.1169624326244214E-6</v>
+      </c>
+      <c r="J4">
+        <v>-7.9498728129834967E-4</v>
+      </c>
+      <c r="K4">
+        <v>-8.4614351578142441E-3</v>
+      </c>
+      <c r="L4">
+        <v>4.6996759317655686E-2</v>
+      </c>
+      <c r="M4">
+        <v>7.5660297703980649E-3</v>
+      </c>
+      <c r="N4">
+        <v>-2.1828269015495491E-2</v>
+      </c>
+      <c r="O4">
+        <v>4.7763168747374108E-4</v>
+      </c>
+      <c r="P4">
+        <v>-9.0277707265204316E-3</v>
+      </c>
+      <c r="Q4">
+        <v>-8.2983371285610154E-3</v>
+      </c>
+      <c r="R4">
+        <v>0.24714437215359836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="35">
+        <v>-0.48107157093877301</v>
+      </c>
+      <c r="C5">
+        <v>-2.727377091870431E-3</v>
+      </c>
+      <c r="D5">
+        <v>-5.0146608098482134E-3</v>
+      </c>
+      <c r="E5">
+        <v>6.9614357229187051E-3</v>
+      </c>
+      <c r="F5">
+        <v>8.5126471562013764E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.5629524270222017E-3</v>
+      </c>
+      <c r="H5">
+        <v>-8.7366803547791316E-3</v>
+      </c>
+      <c r="I5">
+        <v>1.802530825803866E-4</v>
+      </c>
+      <c r="J5">
+        <v>-1.2295732858652476E-3</v>
+      </c>
+      <c r="K5">
+        <v>-3.8951914607041963E-3</v>
+      </c>
+      <c r="L5">
+        <v>9.803643004709843E-2</v>
+      </c>
+      <c r="M5">
+        <v>3.3695469591598012E-3</v>
+      </c>
+      <c r="N5">
+        <v>-2.668314248061221E-2</v>
+      </c>
+      <c r="O5">
+        <v>5.3539376617283731E-4</v>
+      </c>
+      <c r="P5">
+        <v>-5.5832235878560468E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-1.6599485924102889E-3</v>
+      </c>
+      <c r="R5">
+        <v>0.32713664001522336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="35">
+        <v>-0.26356992464611795</v>
+      </c>
+      <c r="C6">
+        <v>-5.6253515497966915E-4</v>
+      </c>
+      <c r="D6">
+        <v>-2.2680570766579712E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.7008222084606908E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.5629524270222017E-3</v>
+      </c>
+      <c r="G6">
+        <v>2.8442070647380625E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.4028917506248049E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.1733934632079673E-4</v>
+      </c>
+      <c r="J6">
+        <v>-3.7171480989475537E-3</v>
+      </c>
+      <c r="K6">
+        <v>1.9429437695244085E-4</v>
+      </c>
+      <c r="L6">
+        <v>0.13686206398886813</v>
+      </c>
+      <c r="M6">
+        <v>1.8522769121694363E-3</v>
+      </c>
+      <c r="N6">
+        <v>-2.6484306321520601E-3</v>
+      </c>
+      <c r="O6">
+        <v>4.9807900655225333E-5</v>
+      </c>
+      <c r="P6">
+        <v>-3.1515105277963706E-4</v>
+      </c>
+      <c r="Q6">
+        <v>2.0635697249602597E-4</v>
+      </c>
+      <c r="R6">
+        <v>3.3501338081958709E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="35">
+        <v>3.8857637162640808</v>
+      </c>
+      <c r="C7">
+        <v>-1.029143489505507E-3</v>
+      </c>
+      <c r="D7">
+        <v>-8.467478632994456E-3</v>
+      </c>
+      <c r="E7">
+        <v>-2.5403141918197451E-3</v>
+      </c>
+      <c r="F7">
+        <v>-8.7366803547791316E-3</v>
+      </c>
+      <c r="G7">
+        <v>-1.4028917506248049E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.31233474308818271</v>
+      </c>
+      <c r="I7">
+        <v>-7.075100444746036E-3</v>
+      </c>
+      <c r="J7">
+        <v>-4.04516816885102E-3</v>
+      </c>
+      <c r="K7">
+        <v>-7.9021780052917785E-4</v>
+      </c>
+      <c r="L7">
+        <v>-3.3760844542680104</v>
+      </c>
+      <c r="M7">
+        <v>3.0701891390115137E-3</v>
+      </c>
+      <c r="N7">
+        <v>-1.3350657849424657E-2</v>
+      </c>
+      <c r="O7">
+        <v>2.8272899310497808E-4</v>
+      </c>
+      <c r="P7">
+        <v>-4.8129231318986354E-3</v>
+      </c>
+      <c r="Q7">
+        <v>-4.6547526734223186E-3</v>
+      </c>
+      <c r="R7">
+        <v>0.16102456347868099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="35">
+        <v>-7.4582187016307505E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.9471515549009802E-5</v>
+      </c>
+      <c r="D8">
+        <v>1.9329097197924838E-4</v>
+      </c>
+      <c r="E8">
+        <v>1.1169624326244214E-6</v>
+      </c>
+      <c r="F8">
+        <v>1.802530825803866E-4</v>
+      </c>
+      <c r="G8">
+        <v>3.1733934632079673E-4</v>
+      </c>
+      <c r="H8">
+        <v>-7.075100444746036E-3</v>
+      </c>
+      <c r="I8">
+        <v>1.6155311210753687E-4</v>
+      </c>
+      <c r="J8">
+        <v>1.4373857569750182E-4</v>
+      </c>
+      <c r="K8">
+        <v>5.3503846624487299E-5</v>
+      </c>
+      <c r="L8">
+        <v>7.594831270785489E-2</v>
+      </c>
+      <c r="M8">
+        <v>-9.2417257606120659E-5</v>
+      </c>
+      <c r="N8">
+        <v>4.250254163199156E-4</v>
+      </c>
+      <c r="O8">
+        <v>-8.8285540398804419E-6</v>
+      </c>
+      <c r="P8">
+        <v>1.1180284347692962E-4</v>
+      </c>
+      <c r="Q8">
+        <v>1.0059868336704042E-4</v>
+      </c>
+      <c r="R8">
+        <v>-5.1610032940756683E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="35">
+        <v>0.24451479585187741</v>
+      </c>
+      <c r="C9">
+        <v>2.8645431821247576E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.1544909058266284E-2</v>
+      </c>
+      <c r="E9">
+        <v>-7.9498728129834967E-4</v>
+      </c>
+      <c r="F9">
+        <v>-1.2295732858652476E-3</v>
+      </c>
+      <c r="G9">
+        <v>-3.7171480989475537E-3</v>
+      </c>
+      <c r="H9">
+        <v>-4.04516816885102E-3</v>
+      </c>
+      <c r="I9">
+        <v>1.4373857569750182E-4</v>
+      </c>
+      <c r="J9">
+        <v>6.472769356982272E-2</v>
+      </c>
+      <c r="K9">
+        <v>3.3785743860611096E-2</v>
+      </c>
+      <c r="L9">
+        <v>-7.9096540308048122E-3</v>
+      </c>
+      <c r="M9">
+        <v>-2.0287498491448966E-3</v>
+      </c>
+      <c r="N9">
+        <v>3.0885909835857428E-2</v>
+      </c>
+      <c r="O9">
+        <v>-6.3505327114519029E-4</v>
+      </c>
+      <c r="P9">
+        <v>2.2017708014193497E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.9998027741123667E-2</v>
+      </c>
+      <c r="R9">
+        <v>-0.39314152771490085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="36">
-        <v>-0.30820056134282969</v>
-      </c>
-      <c r="C2">
-        <v>8.1456127159645949E-3</v>
-      </c>
-      <c r="D2">
-        <v>-1.0369760768287458E-3</v>
-      </c>
-      <c r="E2">
-        <v>-1.7895548761170245E-3</v>
-      </c>
-      <c r="F2">
-        <v>-6.8033918051262012E-4</v>
-      </c>
-      <c r="G2">
-        <v>-1.4066667613010927E-3</v>
-      </c>
-      <c r="H2">
-        <v>1.8327260807893559E-3</v>
-      </c>
-      <c r="I2">
-        <v>9.1048765401499654E-4</v>
-      </c>
-      <c r="J2">
-        <v>-2.3063289746350292E-3</v>
-      </c>
-      <c r="K2">
-        <v>5.7897234319790071E-5</v>
-      </c>
-      <c r="L2">
-        <v>-5.4634382626254688E-6</v>
-      </c>
-      <c r="M2">
-        <v>1.9063483035940521E-2</v>
-      </c>
-      <c r="N2">
-        <v>-7.5055447214675535E-3</v>
-      </c>
-      <c r="O2">
-        <v>1.7916785336030125E-4</v>
-      </c>
-      <c r="P2">
-        <v>-8.5404794585805001E-5</v>
-      </c>
-      <c r="Q2">
-        <v>7.6040770589670015E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="36">
-        <v>-0.25635634901297077</v>
-      </c>
-      <c r="C3">
-        <v>-1.0369760768287458E-3</v>
-      </c>
-      <c r="D3">
-        <v>2.4630160763895903E-2</v>
-      </c>
-      <c r="E3">
-        <v>1.2444733566852783E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.2258391112486835E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.2448007731595495E-2</v>
-      </c>
-      <c r="H3">
-        <v>-2.8767044541478676E-3</v>
-      </c>
-      <c r="I3">
-        <v>2.408034517291666E-4</v>
-      </c>
-      <c r="J3">
-        <v>-2.8362832446771763E-4</v>
-      </c>
-      <c r="K3">
-        <v>-5.0611344967932577E-6</v>
-      </c>
-      <c r="L3">
-        <v>-3.3057023566263977E-5</v>
-      </c>
-      <c r="M3">
-        <v>-3.2690610073261295E-3</v>
-      </c>
-      <c r="N3">
-        <v>3.3629197129373053E-3</v>
-      </c>
-      <c r="O3">
-        <v>-8.0261882914714304E-5</v>
-      </c>
-      <c r="P3">
-        <v>5.4575858065492857E-5</v>
-      </c>
-      <c r="Q3">
-        <v>-4.7165388672200992E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="36">
-        <v>-0.45187894046149879</v>
-      </c>
-      <c r="C4">
-        <v>-1.7895548761170245E-3</v>
-      </c>
-      <c r="D4">
-        <v>1.2444733566852783E-2</v>
-      </c>
-      <c r="E4">
-        <v>3.1440448208159701E-2</v>
-      </c>
-      <c r="F4">
-        <v>1.2576906462214077E-2</v>
-      </c>
-      <c r="G4">
-        <v>1.2914297574175483E-2</v>
-      </c>
-      <c r="H4">
-        <v>-2.7267305628771027E-3</v>
-      </c>
-      <c r="I4">
-        <v>-3.6936055318399883E-4</v>
-      </c>
-      <c r="J4">
-        <v>-1.4464338325770112E-3</v>
-      </c>
-      <c r="K4">
-        <v>1.4630746416740984E-5</v>
-      </c>
-      <c r="L4">
-        <v>-7.0882029470104813E-5</v>
-      </c>
-      <c r="M4">
-        <v>1.2544253689550533E-2</v>
-      </c>
-      <c r="N4">
-        <v>2.5750356902691923E-3</v>
-      </c>
-      <c r="O4">
-        <v>-6.4799648162821742E-5</v>
-      </c>
-      <c r="P4">
-        <v>-1.2752323623805022E-4</v>
-      </c>
-      <c r="Q4">
-        <v>-3.4424643052980597E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="36">
-        <v>-0.39978404005384366</v>
-      </c>
-      <c r="C5">
-        <v>-6.8033918051262012E-4</v>
-      </c>
-      <c r="D5">
-        <v>1.2258391112486835E-2</v>
-      </c>
-      <c r="E5">
-        <v>1.2576906462214077E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.3958367070119467E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.266206029894806E-2</v>
-      </c>
-      <c r="H5">
-        <v>-2.6270296452106587E-3</v>
-      </c>
-      <c r="I5">
-        <v>-6.5139913699661977E-4</v>
-      </c>
-      <c r="J5">
-        <v>-3.6819035459971419E-3</v>
-      </c>
-      <c r="K5">
-        <v>7.6654265597609717E-5</v>
-      </c>
-      <c r="L5">
-        <v>3.0869084527201148E-5</v>
-      </c>
-      <c r="M5">
-        <v>3.000783991910419E-2</v>
-      </c>
-      <c r="N5">
-        <v>-1.2027154454879334E-2</v>
-      </c>
-      <c r="O5">
-        <v>2.7311054240271369E-4</v>
-      </c>
-      <c r="P5">
-        <v>-8.5948963651672969E-5</v>
-      </c>
-      <c r="Q5">
-        <v>0.12083931409216797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="36">
-        <v>6.6030017984772781E-3</v>
-      </c>
-      <c r="C6">
-        <v>-1.4066667613010927E-3</v>
-      </c>
-      <c r="D6">
-        <v>1.2448007731595495E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.2914297574175483E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.266206029894806E-2</v>
-      </c>
-      <c r="G6">
-        <v>1.7737710554285586E-2</v>
-      </c>
-      <c r="H6">
-        <v>-3.7737201763581056E-3</v>
-      </c>
-      <c r="I6">
-        <v>-8.5415519401183361E-4</v>
-      </c>
-      <c r="J6">
-        <v>-3.0944592708070512E-3</v>
-      </c>
-      <c r="K6">
-        <v>5.8442189179212572E-5</v>
-      </c>
-      <c r="L6">
-        <v>-1.2748723884708178E-7</v>
-      </c>
-      <c r="M6">
-        <v>2.6875778191879113E-2</v>
-      </c>
-      <c r="N6">
-        <v>-4.0139647449116272E-3</v>
-      </c>
-      <c r="O6">
-        <v>8.3471742487929105E-5</v>
-      </c>
-      <c r="P6">
-        <v>-6.0744264403587295E-6</v>
-      </c>
-      <c r="Q6">
-        <v>3.5603173068321503E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="36">
-        <v>0.28100174998929578</v>
-      </c>
-      <c r="C7">
-        <v>1.8327260807893559E-3</v>
-      </c>
-      <c r="D7">
-        <v>-2.8767044541478676E-3</v>
-      </c>
-      <c r="E7">
-        <v>-2.7267305628771027E-3</v>
-      </c>
-      <c r="F7">
-        <v>-2.6270296452106587E-3</v>
-      </c>
-      <c r="G7">
-        <v>-3.7737201763581056E-3</v>
-      </c>
-      <c r="H7">
-        <v>2.9718138758730073E-2</v>
-      </c>
-      <c r="I7">
-        <v>6.4377249239880984E-3</v>
-      </c>
-      <c r="J7">
-        <v>-3.1559574583192584E-3</v>
-      </c>
-      <c r="K7">
-        <v>7.2840928173426478E-5</v>
-      </c>
-      <c r="L7">
-        <v>-7.0511496162813385E-4</v>
-      </c>
-      <c r="M7">
-        <v>4.3991937931605524E-2</v>
-      </c>
-      <c r="N7">
-        <v>-9.9537323308882542E-3</v>
-      </c>
-      <c r="O7">
-        <v>2.3664393046551294E-4</v>
-      </c>
-      <c r="P7">
-        <v>-9.2000728302419742E-4</v>
-      </c>
-      <c r="Q7">
-        <v>0.11674926405569874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="36">
-        <v>9.9912140142551314E-2</v>
-      </c>
-      <c r="C8">
-        <v>9.1048765401499654E-4</v>
-      </c>
-      <c r="D8">
-        <v>2.408034517291666E-4</v>
-      </c>
-      <c r="E8">
-        <v>-3.6936055318399883E-4</v>
-      </c>
-      <c r="F8">
-        <v>-6.5139913699661977E-4</v>
-      </c>
-      <c r="G8">
-        <v>-8.5415519401183361E-4</v>
-      </c>
-      <c r="H8">
-        <v>6.4377249239880984E-3</v>
-      </c>
-      <c r="I8">
-        <v>3.6965368416302921E-2</v>
-      </c>
-      <c r="J8">
-        <v>1.1854844992629718E-3</v>
-      </c>
-      <c r="K8">
-        <v>-3.5451294969938594E-5</v>
-      </c>
-      <c r="L8">
-        <v>-9.5065721714158091E-4</v>
-      </c>
-      <c r="M8">
-        <v>3.1661735477224867E-3</v>
-      </c>
-      <c r="N8">
-        <v>2.3598950503798261E-3</v>
-      </c>
-      <c r="O8">
-        <v>-5.9588089803171802E-5</v>
-      </c>
-      <c r="P8">
-        <v>-9.1809734598540514E-4</v>
-      </c>
-      <c r="Q8">
-        <v>-1.0495159843728952E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="36">
-        <v>0.19317549724855232</v>
-      </c>
-      <c r="C9">
-        <v>-2.3063289746350292E-3</v>
-      </c>
-      <c r="D9">
-        <v>-2.8362832446771763E-4</v>
-      </c>
-      <c r="E9">
-        <v>-1.4464338325770112E-3</v>
-      </c>
-      <c r="F9">
-        <v>-3.6819035459971419E-3</v>
-      </c>
-      <c r="G9">
-        <v>-3.0944592708070512E-3</v>
-      </c>
-      <c r="H9">
-        <v>-3.1559574583192584E-3</v>
-      </c>
-      <c r="I9">
-        <v>1.1854844992629718E-3</v>
-      </c>
-      <c r="J9">
-        <v>8.1955529261536764E-2</v>
-      </c>
-      <c r="K9">
-        <v>-1.9522458822507898E-3</v>
-      </c>
-      <c r="L9">
-        <v>4.1363036055141588E-4</v>
-      </c>
-      <c r="M9">
-        <v>-0.8523101720484072</v>
-      </c>
-      <c r="N9">
-        <v>6.6421827234410813E-2</v>
-      </c>
-      <c r="O9">
-        <v>-1.5503808623207257E-3</v>
-      </c>
-      <c r="P9">
-        <v>-2.554824382154583E-4</v>
-      </c>
-      <c r="Q9">
-        <v>-0.6972212592945688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="36">
-        <v>5.4602391260275499E-3</v>
+      <c r="B10" s="35">
+        <v>0.85015493543198495</v>
       </c>
       <c r="C10">
-        <v>5.7897234319790071E-5</v>
+        <v>2.8398115922850013E-2</v>
       </c>
       <c r="D10">
-        <v>-5.0611344967932577E-6</v>
+        <v>3.1961330602481533E-2</v>
       </c>
       <c r="E10">
-        <v>1.4630746416740984E-5</v>
+        <v>-8.4614351578142441E-3</v>
       </c>
       <c r="F10">
-        <v>7.6654265597609717E-5</v>
+        <v>-3.8951914607041963E-3</v>
       </c>
       <c r="G10">
-        <v>5.8442189179212572E-5</v>
+        <v>1.9429437695244085E-4</v>
       </c>
       <c r="H10">
-        <v>7.2840928173426478E-5</v>
+        <v>-7.9021780052917785E-4</v>
       </c>
       <c r="I10">
-        <v>-3.5451294969938594E-5</v>
+        <v>5.3503846624487299E-5</v>
       </c>
       <c r="J10">
-        <v>-1.9522458822507898E-3</v>
+        <v>3.3785743860611096E-2</v>
       </c>
       <c r="K10">
-        <v>4.690007409170738E-5</v>
+        <v>6.1122501667880955E-2</v>
       </c>
       <c r="L10">
-        <v>-9.5006084140962174E-6</v>
+        <v>-3.8011754996775463E-2</v>
       </c>
       <c r="M10">
-        <v>2.0152508693911608E-2</v>
+        <v>-1.9803254931182283E-3</v>
       </c>
       <c r="N10">
-        <v>-1.6372862598501708E-3</v>
+        <v>3.3216667822460161E-2</v>
       </c>
       <c r="O10">
-        <v>3.8306841006772573E-5</v>
+        <v>-6.8891585418845262E-4</v>
       </c>
       <c r="P10">
-        <v>8.0262778848377066E-6</v>
+        <v>2.1094815493427805E-2</v>
       </c>
       <c r="Q10">
-        <v>1.7133245968109612E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2.1585665296580587E-2</v>
+      </c>
+      <c r="R10">
+        <v>-0.4180671394889115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="35">
+        <v>-46.45287812650465</v>
+      </c>
+      <c r="C11">
+        <v>-2.6426091414162634E-2</v>
+      </c>
+      <c r="D11">
+        <v>6.2390742811506708E-2</v>
+      </c>
+      <c r="E11">
+        <v>4.6996759317655686E-2</v>
+      </c>
+      <c r="F11">
+        <v>9.803643004709843E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.13686206398886813</v>
+      </c>
+      <c r="H11">
+        <v>-3.3760844542680104</v>
+      </c>
+      <c r="I11">
+        <v>7.594831270785489E-2</v>
+      </c>
+      <c r="J11">
+        <v>-7.9096540308048122E-3</v>
+      </c>
+      <c r="K11">
+        <v>-3.8011754996775463E-2</v>
+      </c>
+      <c r="L11">
+        <v>36.749260887812618</v>
+      </c>
+      <c r="M11">
+        <v>-2.4897725390058217E-2</v>
+      </c>
+      <c r="N11">
+        <v>7.1809996954858346E-2</v>
+      </c>
+      <c r="O11">
+        <v>-1.5993984577213141E-3</v>
+      </c>
+      <c r="P11">
+        <v>3.2130247243110588E-2</v>
+      </c>
+      <c r="Q11">
+        <v>3.3133334202848863E-2</v>
+      </c>
+      <c r="R11">
+        <v>-0.83348589994990974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="36">
-        <v>-0.14539458102706895</v>
-      </c>
-      <c r="C11">
-        <v>-5.4634382626254688E-6</v>
-      </c>
-      <c r="D11">
-        <v>-3.3057023566263977E-5</v>
-      </c>
-      <c r="E11">
-        <v>-7.0882029470104813E-5</v>
-      </c>
-      <c r="F11">
-        <v>3.0869084527201148E-5</v>
-      </c>
-      <c r="G11">
-        <v>-1.2748723884708178E-7</v>
-      </c>
-      <c r="H11">
-        <v>-7.0511496162813385E-4</v>
-      </c>
-      <c r="I11">
-        <v>-9.5065721714158091E-4</v>
-      </c>
-      <c r="J11">
-        <v>4.1363036055141588E-4</v>
-      </c>
-      <c r="K11">
-        <v>-9.5006084140962174E-6</v>
-      </c>
-      <c r="L11">
-        <v>2.4598064355990239E-4</v>
-      </c>
-      <c r="M11">
-        <v>-8.4920312162591622E-3</v>
-      </c>
-      <c r="N11">
-        <v>-1.8344165736184324E-5</v>
-      </c>
-      <c r="O11">
-        <v>6.4436289996171138E-7</v>
-      </c>
-      <c r="P11">
-        <v>7.5331668965951442E-5</v>
-      </c>
-      <c r="Q11">
-        <v>-9.6284146661545361E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="36">
-        <v>-2.1793908437740974</v>
+      <c r="B12" s="35">
+        <v>-0.90322816261310479</v>
       </c>
       <c r="C12">
-        <v>1.9063483035940521E-2</v>
+        <v>-7.6036995320992451E-4</v>
       </c>
       <c r="D12">
-        <v>-3.2690610073261295E-3</v>
+        <v>-6.1146728693350708E-3</v>
       </c>
       <c r="E12">
-        <v>1.2544253689550533E-2</v>
+        <v>7.5660297703980649E-3</v>
       </c>
       <c r="F12">
-        <v>3.000783991910419E-2</v>
+        <v>3.3695469591598012E-3</v>
       </c>
       <c r="G12">
-        <v>2.6875778191879113E-2</v>
+        <v>1.8522769121694363E-3</v>
       </c>
       <c r="H12">
-        <v>4.3991937931605524E-2</v>
+        <v>3.0701891390115137E-3</v>
       </c>
       <c r="I12">
-        <v>3.1661735477224867E-3</v>
+        <v>-9.2417257606120659E-5</v>
       </c>
       <c r="J12">
-        <v>-0.8523101720484072</v>
+        <v>-2.0287498491448966E-3</v>
       </c>
       <c r="K12">
-        <v>2.0152508693911608E-2</v>
+        <v>-1.9803254931182283E-3</v>
       </c>
       <c r="L12">
-        <v>-8.4920312162591622E-3</v>
+        <v>-2.4897725390058217E-2</v>
       </c>
       <c r="M12">
-        <v>9.0026692015390708</v>
+        <v>4.5871301557674903E-2</v>
       </c>
       <c r="N12">
-        <v>-0.66109076474957718</v>
+        <v>1.7964025960052532E-2</v>
       </c>
       <c r="O12">
-        <v>1.5392822135974149E-2</v>
+        <v>-3.8563623202476482E-4</v>
       </c>
       <c r="P12">
-        <v>8.9518941482380487E-4</v>
+        <v>-2.0278290044685107E-3</v>
       </c>
       <c r="Q12">
-        <v>6.9863337436713095</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-5.4484306311756783E-3</v>
+      </c>
+      <c r="R12">
+        <v>-0.22667537999136833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="36">
-        <v>-1.0380116644401483</v>
+      <c r="B13" s="35">
+        <v>15.090976389772001</v>
       </c>
       <c r="C13">
-        <v>-7.5055447214675535E-3</v>
+        <v>4.4371421986043214E-2</v>
       </c>
       <c r="D13">
-        <v>3.3629197129373053E-3</v>
+        <v>5.7653563144451608E-2</v>
       </c>
       <c r="E13">
-        <v>2.5750356902691923E-3</v>
+        <v>-2.1828269015495491E-2</v>
       </c>
       <c r="F13">
-        <v>-1.2027154454879334E-2</v>
+        <v>-2.668314248061221E-2</v>
       </c>
       <c r="G13">
-        <v>-4.0139647449116272E-3</v>
+        <v>-2.6484306321520601E-3</v>
       </c>
       <c r="H13">
-        <v>-9.9537323308882542E-3</v>
+        <v>-1.3350657849424657E-2</v>
       </c>
       <c r="I13">
-        <v>2.3598950503798261E-3</v>
+        <v>4.250254163199156E-4</v>
       </c>
       <c r="J13">
-        <v>6.6421827234410813E-2</v>
+        <v>3.0885909835857428E-2</v>
       </c>
       <c r="K13">
-        <v>-1.6372862598501708E-3</v>
+        <v>3.3216667822460161E-2</v>
       </c>
       <c r="L13">
-        <v>-1.8344165736184324E-5</v>
+        <v>7.1809996954858346E-2</v>
       </c>
       <c r="M13">
-        <v>-0.66109076474957718</v>
+        <v>1.7964025960052532E-2</v>
       </c>
       <c r="N13">
-        <v>0.39875647452238816</v>
+        <v>3.0194838521498752</v>
       </c>
       <c r="O13">
-        <v>-9.1223085940722315E-3</v>
+        <v>-6.2550586071682734E-2</v>
       </c>
       <c r="P13">
-        <v>1.4807577611700151E-4</v>
+        <v>-2.391694636392927E-2</v>
       </c>
       <c r="Q13">
-        <v>-4.3114550169004389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-8.0449137749631916E-3</v>
+      </c>
+      <c r="R13">
+        <v>-36.320843144946707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="36">
-        <v>3.8376321516939385E-2</v>
+      <c r="B14" s="35">
+        <v>-0.29074400942248313</v>
       </c>
       <c r="C14">
-        <v>1.7916785336030125E-4</v>
+        <v>-9.2902782734355718E-4</v>
       </c>
       <c r="D14">
-        <v>-8.0261882914714304E-5</v>
+        <v>-1.1899717679921063E-3</v>
       </c>
       <c r="E14">
-        <v>-6.4799648162821742E-5</v>
+        <v>4.7763168747374108E-4</v>
       </c>
       <c r="F14">
-        <v>2.7311054240271369E-4</v>
+        <v>5.3539376617283731E-4</v>
       </c>
       <c r="G14">
-        <v>8.3471742487929105E-5</v>
+        <v>4.9807900655225333E-5</v>
       </c>
       <c r="H14">
-        <v>2.3664393046551294E-4</v>
+        <v>2.8272899310497808E-4</v>
       </c>
       <c r="I14">
-        <v>-5.9588089803171802E-5</v>
+        <v>-8.8285540398804419E-6</v>
       </c>
       <c r="J14">
-        <v>-1.5503808623207257E-3</v>
+        <v>-6.3505327114519029E-4</v>
       </c>
       <c r="K14">
-        <v>3.8306841006772573E-5</v>
+        <v>-6.8891585418845262E-4</v>
       </c>
       <c r="L14">
-        <v>6.4436289996171138E-7</v>
+        <v>-1.5993984577213141E-3</v>
       </c>
       <c r="M14">
-        <v>1.5392822135974149E-2</v>
+        <v>-3.8563623202476482E-4</v>
       </c>
       <c r="N14">
-        <v>-9.1223085940722315E-3</v>
+        <v>-6.2550586071682734E-2</v>
       </c>
       <c r="O14">
-        <v>2.0920005657128942E-4</v>
+        <v>1.2981131046843654E-3</v>
       </c>
       <c r="P14">
-        <v>-6.6733885889080219E-7</v>
+        <v>4.9600965418533649E-4</v>
       </c>
       <c r="Q14">
-        <v>9.8339441514950332E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+        <v>1.4509817699132066E-4</v>
+      </c>
+      <c r="R14">
+        <v>0.75108367108360596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="36">
-        <v>-3.1846799733797455E-2</v>
+        <v>43</v>
+      </c>
+      <c r="B15" s="35">
+        <v>-0.52475000929738724</v>
       </c>
       <c r="C15">
-        <v>-8.5404794585805001E-5</v>
+        <v>3.1613351037507453E-2</v>
       </c>
       <c r="D15">
-        <v>5.4575858065492857E-5</v>
+        <v>2.6287368156533542E-2</v>
       </c>
       <c r="E15">
-        <v>-1.2752323623805022E-4</v>
+        <v>-9.0277707265204316E-3</v>
       </c>
       <c r="F15">
-        <v>-8.5948963651672969E-5</v>
+        <v>-5.5832235878560468E-3</v>
       </c>
       <c r="G15">
-        <v>-6.0744264403587295E-6</v>
+        <v>-3.1515105277963706E-4</v>
       </c>
       <c r="H15">
-        <v>-9.2000728302419742E-4</v>
+        <v>-4.8129231318986354E-3</v>
       </c>
       <c r="I15">
-        <v>-9.1809734598540514E-4</v>
+        <v>1.1180284347692962E-4</v>
       </c>
       <c r="J15">
-        <v>-2.554824382154583E-4</v>
+        <v>2.2017708014193497E-2</v>
       </c>
       <c r="K15">
-        <v>8.0262778848377066E-6</v>
+        <v>2.1094815493427805E-2</v>
       </c>
       <c r="L15">
-        <v>7.5331668965951442E-5</v>
+        <v>3.2130247243110588E-2</v>
       </c>
       <c r="M15">
-        <v>8.9518941482380487E-4</v>
+        <v>-2.0278290044685107E-3</v>
       </c>
       <c r="N15">
-        <v>1.4807577611700151E-4</v>
+        <v>-2.391694636392927E-2</v>
       </c>
       <c r="O15">
-        <v>-6.6733885889080219E-7</v>
+        <v>4.9600965418533649E-4</v>
       </c>
       <c r="P15">
-        <v>3.7306278471385614E-4</v>
+        <v>0.11379526707616551</v>
       </c>
       <c r="Q15">
-        <v>-8.5831150875225193E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4.8313353580306827E-2</v>
+      </c>
+      <c r="R15">
+        <v>0.2409229265414953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="36">
-        <v>3.5634125421325957</v>
+        <v>44</v>
+      </c>
+      <c r="B16" s="35">
+        <v>-0.43089654403800065</v>
       </c>
       <c r="C16">
-        <v>7.6040770589670015E-2</v>
+        <v>3.1213729089431388E-2</v>
       </c>
       <c r="D16">
-        <v>-4.7165388672200992E-2</v>
+        <v>2.596349859953177E-2</v>
       </c>
       <c r="E16">
-        <v>-3.4424643052980597E-2</v>
+        <v>-8.2983371285610154E-3</v>
       </c>
       <c r="F16">
-        <v>0.12083931409216797</v>
+        <v>-1.6599485924102889E-3</v>
       </c>
       <c r="G16">
-        <v>3.5603173068321503E-2</v>
+        <v>2.0635697249602597E-4</v>
       </c>
       <c r="H16">
-        <v>0.11674926405569874</v>
+        <v>-4.6547526734223186E-3</v>
       </c>
       <c r="I16">
-        <v>-1.0495159843728952E-2</v>
+        <v>1.0059868336704042E-4</v>
       </c>
       <c r="J16">
-        <v>-0.6972212592945688</v>
+        <v>1.9998027741123667E-2</v>
       </c>
       <c r="K16">
-        <v>1.7133245968109612E-2</v>
+        <v>2.1585665296580587E-2</v>
       </c>
       <c r="L16">
-        <v>-9.6284146661545361E-4</v>
+        <v>3.3133334202848863E-2</v>
       </c>
       <c r="M16">
-        <v>6.9863337436713095</v>
+        <v>-5.4484306311756783E-3</v>
       </c>
       <c r="N16">
-        <v>-4.3114550169004389</v>
+        <v>-8.0449137749631916E-3</v>
       </c>
       <c r="O16">
-        <v>9.8339441514950332E-2</v>
+        <v>1.4509817699132066E-4</v>
       </c>
       <c r="P16">
-        <v>-8.5831150875225193E-3</v>
+        <v>4.8313353580306827E-2</v>
       </c>
       <c r="Q16">
-        <v>46.881820336549254</v>
+        <v>7.4509543025908592E-2</v>
+      </c>
+      <c r="R16">
+        <v>6.403217549257656E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="35">
+        <v>-193.32285353330371</v>
+      </c>
+      <c r="C17">
+        <v>-0.55844614351246458</v>
+      </c>
+      <c r="D17">
+        <v>-0.71911374605839495</v>
+      </c>
+      <c r="E17">
+        <v>0.24714437215359836</v>
+      </c>
+      <c r="F17">
+        <v>0.32713664001522336</v>
+      </c>
+      <c r="G17">
+        <v>3.3501338081958709E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.16102456347868099</v>
+      </c>
+      <c r="I17">
+        <v>-5.1610032940756683E-3</v>
+      </c>
+      <c r="J17">
+        <v>-0.39314152771490085</v>
+      </c>
+      <c r="K17">
+        <v>-0.4180671394889115</v>
+      </c>
+      <c r="L17">
+        <v>-0.83348589994990974</v>
+      </c>
+      <c r="M17">
+        <v>-0.22667537999136833</v>
+      </c>
+      <c r="N17">
+        <v>-36.320843144946707</v>
+      </c>
+      <c r="O17">
+        <v>0.75108367108360596</v>
+      </c>
+      <c r="P17">
+        <v>0.2409229265414953</v>
+      </c>
+      <c r="Q17">
+        <v>6.403217549257656E-2</v>
+      </c>
+      <c r="R17">
+        <v>437.70410623736916</v>
       </c>
     </row>
   </sheetData>
